--- a/docs/Examples/Example1c_HORIBA_Calibration/FI_fitting_w_sec_phases.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/FI_fitting_w_sec_phases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="190">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -22,15 +22,33 @@
     <t>Corrected_Splitting</t>
   </si>
   <si>
+    <t>Corr_Split+1σ</t>
+  </si>
+  <si>
+    <t>Corr_Split-1σ</t>
+  </si>
+  <si>
+    <t>Corr_Split_1σ_val</t>
+  </si>
+  <si>
     <t>filename_x</t>
   </si>
   <si>
     <t>Splitting</t>
   </si>
   <si>
+    <t>Split_err_abs</t>
+  </si>
+  <si>
+    <t>Split_err_quadrature</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Cent</t>
   </si>
   <si>
+    <t>Diad1_cent_err</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Height</t>
   </si>
   <si>
@@ -58,6 +76,9 @@
     <t>Diad2_Combofit_Cent</t>
   </si>
   <si>
+    <t>Diad2_cent_err</t>
+  </si>
+  <si>
     <t>Diad2_Combofit_Height</t>
   </si>
   <si>
@@ -172,9 +193,6 @@
     <t>Spectral Center</t>
   </si>
   <si>
-    <t>Ne_Correction</t>
-  </si>
-  <si>
     <t>10mol_FIE_R3</t>
   </si>
   <si>
@@ -286,9 +304,30 @@
     <t>LL8_631_b_r3</t>
   </si>
   <si>
+    <t>10mol_FID_R1</t>
+  </si>
+  <si>
+    <t>10mol_FID_R2</t>
+  </si>
+  <si>
+    <t>10mol_FID_R3</t>
+  </si>
+  <si>
+    <t>10mol_FIE_R1</t>
+  </si>
+  <si>
+    <t>10mol_FIE_R2</t>
+  </si>
+  <si>
     <t>Flagged Warnings:</t>
   </si>
   <si>
+    <t>Flagged Warnings: HB1_HighAmp</t>
+  </si>
+  <si>
+    <t>Flagged Warnings: V_LowAmp</t>
+  </si>
+  <si>
     <t>10mol_FIE_R3.txt</t>
   </si>
   <si>
@@ -400,6 +439,21 @@
     <t>LL8_631_b_r3.txt</t>
   </si>
   <si>
+    <t>10mol_FID_R1.txt</t>
+  </si>
+  <si>
+    <t>10mol_FID_R2.txt</t>
+  </si>
+  <si>
+    <t>10mol_FID_R3.txt</t>
+  </si>
+  <si>
+    <t>10mol_FIE_R1.txt</t>
+  </si>
+  <si>
+    <t>10mol_FIE_R2.txt</t>
+  </si>
+  <si>
     <t>January 1, 2020</t>
   </si>
   <si>
@@ -515,6 +569,21 @@
   </si>
   <si>
     <t>8:10:20</t>
+  </si>
+  <si>
+    <t>2:5:15</t>
+  </si>
+  <si>
+    <t>2:8:46</t>
+  </si>
+  <si>
+    <t>2:12:49</t>
+  </si>
+  <si>
+    <t>1:46:39</t>
+  </si>
+  <si>
+    <t>1:49:45</t>
   </si>
 </sst>
 </file>
@@ -872,13 +941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB38"/>
+  <dimension ref="A1:BH43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:60">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1107,26 @@
       <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:60">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1047,106 +1134,115 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>102.8242112162795</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
+        <v>102.8919607747663</v>
+      </c>
+      <c r="D2">
+        <v>102.9491206944555</v>
       </c>
       <c r="E2">
-        <v>102.7923167709002</v>
+        <v>102.8348008550771</v>
       </c>
       <c r="F2">
-        <v>1285.966474364443</v>
-      </c>
-      <c r="G2">
-        <v>980.1919888873797</v>
+        <v>0.05715991968914961</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>1285.966474364443</v>
+        <v>102.8600453079339</v>
       </c>
       <c r="I2">
-        <v>2766.40068457906</v>
+        <v>0.0741</v>
       </c>
       <c r="J2">
-        <v>1.078726381406422</v>
+        <v>0.05455758425736976</v>
       </c>
       <c r="K2">
-        <v>19.78323505442969</v>
+        <v>1285.961206313636</v>
       </c>
       <c r="L2">
-        <v>0.5949580315868629</v>
+        <v>0.0263</v>
       </c>
       <c r="M2">
-        <v>2.157452762812843</v>
-      </c>
-      <c r="N2" t="s">
-        <v>90</v>
+        <v>941.6509732537281</v>
+      </c>
+      <c r="N2">
+        <v>1285.961206313636</v>
       </c>
       <c r="O2">
-        <v>1388.758791135343</v>
+        <v>2649.209334603084</v>
       </c>
       <c r="P2">
-        <v>1525.266741684756</v>
+        <v>1.11762384474291</v>
       </c>
       <c r="Q2">
-        <v>1388.758791135343</v>
+        <v>20.52608035990486</v>
       </c>
       <c r="R2">
-        <v>5518.446372591312</v>
+        <v>0.4816366337074487</v>
       </c>
       <c r="S2">
-        <v>1.151651698374974</v>
+        <v>2.235247689485821</v>
+      </c>
+      <c r="T2" t="s">
+        <v>101</v>
       </c>
       <c r="U2">
-        <v>40.56118923461581</v>
+        <v>1388.82125162157</v>
       </c>
       <c r="V2">
-        <v>0.9999999999099253</v>
+        <v>0.0478</v>
       </c>
       <c r="W2">
-        <v>2.303303396749947</v>
-      </c>
-      <c r="X2" t="s">
-        <v>90</v>
+        <v>1425.667567615148</v>
+      </c>
+      <c r="X2">
+        <v>1388.82125162157</v>
+      </c>
+      <c r="Y2">
+        <v>4108.762434948981</v>
+      </c>
+      <c r="Z2">
+        <v>1.092731816996085</v>
       </c>
       <c r="AB2">
-        <v>1410.218958944591</v>
+        <v>24.05935380307235</v>
       </c>
       <c r="AC2">
-        <v>304.0459624127931</v>
+        <v>0.5701894828118462</v>
       </c>
       <c r="AD2">
-        <v>1.42093956415605</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS2">
+        <v>2.185463633992169</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ2">
         <v>1</v>
       </c>
-      <c r="AY2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ2">
+      <c r="BF2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG2">
         <v>6810</v>
       </c>
-      <c r="BB2">
-        <v>1.000310280441002</v>
-      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:60">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1154,106 +1250,115 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>102.7909833653875</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
+        <v>102.795183938102</v>
+      </c>
+      <c r="D3">
+        <v>102.8404269777341</v>
       </c>
       <c r="E3">
-        <v>102.7548193590515</v>
+        <v>102.7499408984699</v>
       </c>
       <c r="F3">
-        <v>1286.319385121787</v>
-      </c>
-      <c r="G3">
-        <v>2544.2957377574</v>
+        <v>0.04524303963211947</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>1286.319385121787</v>
+        <v>102.7590184502301</v>
       </c>
       <c r="I3">
-        <v>5415.867034472363</v>
+        <v>0.0546</v>
       </c>
       <c r="J3">
-        <v>0.8541209901506073</v>
+        <v>0.04217321424790859</v>
       </c>
       <c r="K3">
-        <v>25.95401541797621</v>
+        <v>1286.32359094819</v>
       </c>
       <c r="L3">
-        <v>0.4533349166199077</v>
+        <v>0.0393</v>
       </c>
       <c r="M3">
-        <v>1.708241980301215</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
+        <v>2523.054688189595</v>
+      </c>
+      <c r="N3">
+        <v>1286.32359094819</v>
       </c>
       <c r="O3">
-        <v>1389.074204480838</v>
+        <v>5393.650108404201</v>
       </c>
       <c r="P3">
-        <v>3561.979838695749</v>
+        <v>0.8615810753333512</v>
       </c>
       <c r="Q3">
-        <v>1389.074204480838</v>
+        <v>15.55100306501124</v>
       </c>
       <c r="R3">
-        <v>7560.606019198811</v>
+        <v>0.438305102079478</v>
       </c>
       <c r="S3">
-        <v>0.9699273395365451</v>
+        <v>1.723162150666702</v>
+      </c>
+      <c r="T3" t="s">
+        <v>101</v>
       </c>
       <c r="U3">
-        <v>23.17481635195703</v>
+        <v>1389.08260939842</v>
       </c>
       <c r="V3">
-        <v>0.0842949266245272</v>
+        <v>0.0153</v>
       </c>
       <c r="W3">
-        <v>1.93985467907309</v>
-      </c>
-      <c r="X3" t="s">
-        <v>90</v>
+        <v>3594.939344145804</v>
+      </c>
+      <c r="X3">
+        <v>1389.08260939842</v>
+      </c>
+      <c r="Y3">
+        <v>7841.495247143208</v>
+      </c>
+      <c r="Z3">
+        <v>0.959547116466561</v>
       </c>
       <c r="AB3">
-        <v>1410.332932931142</v>
+        <v>19.71508395159532</v>
       </c>
       <c r="AC3">
-        <v>733.2091936523772</v>
+        <v>0.19207723889706</v>
       </c>
       <c r="AD3">
-        <v>0.5063739183877748</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS3">
+        <v>1.919094232933122</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3">
         <v>1</v>
       </c>
-      <c r="AY3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ3">
+      <c r="BF3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG3">
         <v>11706</v>
       </c>
-      <c r="BB3">
-        <v>1.000351944624706</v>
-      </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:60">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1261,106 +1366,115 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>102.7458929458138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
+        <v>102.7244434930433</v>
+      </c>
+      <c r="D4">
+        <v>102.7512764344699</v>
       </c>
       <c r="E4">
-        <v>102.709396531332</v>
+        <v>102.6976105516166</v>
       </c>
       <c r="F4">
-        <v>1286.479919795953</v>
-      </c>
-      <c r="G4">
-        <v>2159.117789376488</v>
+        <v>0.0268329414266809</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>1286.479919795953</v>
+        <v>102.6879546941509</v>
       </c>
       <c r="I4">
-        <v>4961.339850819428</v>
+        <v>0.02823</v>
       </c>
       <c r="J4">
-        <v>0.9764152928795496</v>
+        <v>0.02131499237625949</v>
       </c>
       <c r="K4">
-        <v>17.9220143496924</v>
+        <v>1286.484420787003</v>
       </c>
       <c r="L4">
-        <v>0.3032959941209285</v>
+        <v>0.0194</v>
       </c>
       <c r="M4">
-        <v>1.952830585759099</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
+        <v>2137.380366220691</v>
+      </c>
+      <c r="N4">
+        <v>1286.484420787003</v>
       </c>
       <c r="O4">
-        <v>1389.189366329785</v>
+        <v>4842.994439599859</v>
       </c>
       <c r="P4">
-        <v>3404.086598766468</v>
+        <v>0.9826870994313732</v>
       </c>
       <c r="Q4">
-        <v>1389.189316327285</v>
+        <v>14.28284744029317</v>
       </c>
       <c r="R4">
-        <v>8055.092822800282</v>
+        <v>0.2359216429705897</v>
       </c>
       <c r="S4">
-        <v>0.9935514281438089</v>
+        <v>1.965374198862746</v>
+      </c>
+      <c r="T4" t="s">
+        <v>101</v>
       </c>
       <c r="U4">
-        <v>30.13032650087072</v>
+        <v>1389.172375481154</v>
       </c>
       <c r="V4">
-        <v>0.3295080509830429</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="W4">
-        <v>1.987102856287618</v>
-      </c>
-      <c r="X4" t="s">
-        <v>90</v>
+        <v>3276.801371482389</v>
+      </c>
+      <c r="X4">
+        <v>1389.172375481154</v>
+      </c>
+      <c r="Y4">
+        <v>7237.692345674951</v>
+      </c>
+      <c r="Z4">
+        <v>1.022182466882394</v>
       </c>
       <c r="AB4">
-        <v>1410.401066272005</v>
+        <v>11.79437018589778</v>
       </c>
       <c r="AC4">
-        <v>912.5922681942565</v>
+        <v>0.0460827575173407</v>
       </c>
       <c r="AD4">
-        <v>1.599663113204707</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS4">
+        <v>2.044364933764789</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4">
         <v>1</v>
       </c>
-      <c r="AY4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ4">
+      <c r="BF4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG4">
         <v>12127</v>
       </c>
-      <c r="BB4">
-        <v>1.000355336665528</v>
-      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:60">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1368,106 +1482,115 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>102.779647976293</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
+        <v>102.7707958882712</v>
+      </c>
+      <c r="D5">
+        <v>102.8059586703142</v>
       </c>
       <c r="E5">
-        <v>102.7428236919416</v>
+        <v>102.7356331062281</v>
       </c>
       <c r="F5">
-        <v>1286.541341259403</v>
-      </c>
-      <c r="G5">
-        <v>1954.226293353099</v>
+        <v>0.03516278204307414</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>1286.541341259403</v>
+        <v>102.7339747721783</v>
       </c>
       <c r="I5">
-        <v>4806.826293850059</v>
+        <v>0.0435</v>
       </c>
       <c r="J5">
-        <v>1.011822629669987</v>
+        <v>0.03116616755393579</v>
       </c>
       <c r="K5">
-        <v>25.91960855613015</v>
+        <v>1286.544823305473</v>
       </c>
       <c r="L5">
-        <v>0.3928023933949578</v>
+        <v>0.0253</v>
       </c>
       <c r="M5">
-        <v>2.023645259339973</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
+        <v>1935.500010784188</v>
+      </c>
+      <c r="N5">
+        <v>1286.544823305473</v>
       </c>
       <c r="O5">
-        <v>1389.284164951345</v>
+        <v>4672.379790523845</v>
       </c>
       <c r="P5">
-        <v>2991.678636255897</v>
+        <v>1.016851700396083</v>
       </c>
       <c r="Q5">
-        <v>1389.284164951345</v>
+        <v>19.28726219227568</v>
       </c>
       <c r="R5">
-        <v>6831.841358886644</v>
+        <v>0.3183449854861067</v>
       </c>
       <c r="S5">
-        <v>1.015844448131061</v>
+        <v>2.033703400792167</v>
+      </c>
+      <c r="T5" t="s">
+        <v>101</v>
       </c>
       <c r="U5">
-        <v>20.10956484939513</v>
+        <v>1389.278798077651</v>
       </c>
       <c r="V5">
-        <v>0.1643107048756741</v>
+        <v>0.0182</v>
       </c>
       <c r="W5">
-        <v>2.031688896262122</v>
-      </c>
-      <c r="X5" t="s">
-        <v>90</v>
+        <v>2958.263896602658</v>
+      </c>
+      <c r="X5">
+        <v>1389.278798077651</v>
+      </c>
+      <c r="Y5">
+        <v>6686.410120727018</v>
+      </c>
+      <c r="Z5">
+        <v>1.027221411029736</v>
       </c>
       <c r="AB5">
-        <v>1410.366341862251</v>
+        <v>30.28048278106905</v>
       </c>
       <c r="AC5">
-        <v>754.7109260004561</v>
+        <v>0.1011441454201993</v>
       </c>
       <c r="AD5">
-        <v>0.5146011496289258</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS5">
+        <v>2.054442822059471</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5">
         <v>1</v>
       </c>
-      <c r="AY5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ5">
+      <c r="BF5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG5">
         <v>12512</v>
       </c>
-      <c r="BB5">
-        <v>1.00035841222801</v>
-      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:60">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1475,106 +1598,115 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>102.7740012152722</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
+        <v>102.77140005552</v>
+      </c>
+      <c r="D6">
+        <v>102.799878344723</v>
       </c>
       <c r="E6">
-        <v>102.7400695002966</v>
+        <v>102.7429217663171</v>
       </c>
       <c r="F6">
-        <v>1285.149557515506</v>
-      </c>
-      <c r="G6">
-        <v>2030.472934477202</v>
+        <v>0.02847828920293316</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
       </c>
       <c r="H6">
-        <v>1285.149557515506</v>
+        <v>102.7374691942241</v>
       </c>
       <c r="I6">
-        <v>5132.075610181368</v>
+        <v>0.0305</v>
       </c>
       <c r="J6">
-        <v>1.057015761231293</v>
+        <v>0.02309913418290824</v>
       </c>
       <c r="K6">
-        <v>16.17457643062856</v>
+        <v>1285.149924570855</v>
       </c>
       <c r="L6">
-        <v>0.3423979600622507</v>
+        <v>0.0211</v>
       </c>
       <c r="M6">
-        <v>2.114031522462587</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
+        <v>2027.954568737025</v>
+      </c>
+      <c r="N6">
+        <v>1285.149924570855</v>
       </c>
       <c r="O6">
-        <v>1387.889627015802</v>
+        <v>5115.279126891593</v>
       </c>
       <c r="P6">
-        <v>3082.121935058356</v>
+        <v>1.05745957174331</v>
       </c>
       <c r="Q6">
-        <v>1387.889627015802</v>
+        <v>12.4563534660853</v>
       </c>
       <c r="R6">
-        <v>7658.226237268073</v>
+        <v>0.3338179699383169</v>
       </c>
       <c r="S6">
-        <v>1.12362041019844</v>
+        <v>2.11491914348662</v>
+      </c>
+      <c r="T6" t="s">
+        <v>101</v>
       </c>
       <c r="U6">
-        <v>13.81662932549243</v>
+        <v>1387.887393765079</v>
       </c>
       <c r="V6">
-        <v>0.115630780548912</v>
+        <v>0.0094</v>
       </c>
       <c r="W6">
-        <v>2.24724082039688</v>
-      </c>
-      <c r="X6" t="s">
-        <v>90</v>
+        <v>3052.739407804313</v>
+      </c>
+      <c r="X6">
+        <v>1387.887393765079</v>
+      </c>
+      <c r="Y6">
+        <v>7468.990324468941</v>
+      </c>
+      <c r="Z6">
+        <v>1.131933576890462</v>
       </c>
       <c r="AB6">
-        <v>1409.08023898179</v>
+        <v>19.36627458585893</v>
       </c>
       <c r="AC6">
-        <v>546.6233573261375</v>
+        <v>0.04767146463815336</v>
       </c>
       <c r="AD6">
-        <v>0.8894303993328556</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS6">
+        <v>2.263867153780923</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ6">
         <v>1</v>
       </c>
-      <c r="AY6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ6">
+      <c r="BF6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG6">
         <v>9099</v>
       </c>
-      <c r="BB6">
-        <v>1.000330267588299</v>
-      </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:60">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1582,106 +1714,115 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>102.8811622013186</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
+        <v>102.8753387611365</v>
+      </c>
+      <c r="D7">
+        <v>103.1073055896617</v>
       </c>
       <c r="E7">
-        <v>102.8466057793805</v>
+        <v>102.6433719326113</v>
       </c>
       <c r="F7">
-        <v>1286.061222952005</v>
-      </c>
-      <c r="G7">
-        <v>94381.01443750518</v>
+        <v>0.2319668285252025</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
       </c>
       <c r="H7">
-        <v>1286.061222952005</v>
+        <v>102.8407842904924</v>
       </c>
       <c r="I7">
-        <v>52913.78430533053</v>
+        <v>0.2427</v>
       </c>
       <c r="J7">
-        <v>0.2499744489151118</v>
+        <v>0.2312961089166871</v>
       </c>
       <c r="K7">
-        <v>30.17530088404329</v>
+        <v>1286.056367144743</v>
       </c>
       <c r="L7">
-        <v>0.1579504437366953</v>
+        <v>0.231</v>
       </c>
       <c r="M7">
-        <v>0.4999488978302236</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
+        <v>95925.808077778</v>
+      </c>
+      <c r="N7">
+        <v>1286.056367144743</v>
       </c>
       <c r="O7">
-        <v>1388.907878733886</v>
+        <v>54818.55757905181</v>
       </c>
       <c r="P7">
-        <v>3587.263060842234</v>
+        <v>0.2570516692263833</v>
       </c>
       <c r="Q7">
-        <v>1388.907828731386</v>
+        <v>19.76996952841172</v>
       </c>
       <c r="R7">
-        <v>8422.235819065552</v>
+        <v>0.131576189670778</v>
       </c>
       <c r="S7">
-        <v>0.9212682084441649</v>
+        <v>0.5141033384527667</v>
+      </c>
+      <c r="T7" t="s">
+        <v>101</v>
       </c>
       <c r="U7">
-        <v>27.99562075356897</v>
+        <v>1388.897151435235</v>
       </c>
       <c r="V7">
-        <v>0.5110815263776867</v>
+        <v>0.0117</v>
       </c>
       <c r="W7">
-        <v>1.84253641688833</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
+        <v>3512.900307026075</v>
+      </c>
+      <c r="X7">
+        <v>1388.897151435235</v>
+      </c>
+      <c r="Y7">
+        <v>7665.028905328165</v>
+      </c>
+      <c r="Z7">
+        <v>0.9435972258658752</v>
       </c>
       <c r="AB7">
-        <v>1410.149078379406</v>
+        <v>16.71679459802825</v>
       </c>
       <c r="AC7">
-        <v>1139.031371462688</v>
+        <v>0.2347023963953253</v>
       </c>
       <c r="AD7">
-        <v>0.6510803589571359</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS7">
+        <v>1.88719445173175</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ7">
         <v>1</v>
       </c>
-      <c r="AY7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ7">
+      <c r="BF7" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG7">
         <v>9775</v>
       </c>
-      <c r="BB7">
-        <v>1.00033599963437</v>
-      </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:60">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1689,106 +1830,115 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>102.7923004273172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
+        <v>102.7958281698534</v>
+      </c>
+      <c r="D8">
+        <v>102.8734283057588</v>
       </c>
       <c r="E8">
-        <v>102.7573297846106</v>
+        <v>102.7182280339481</v>
       </c>
       <c r="F8">
-        <v>1286.311049912397</v>
-      </c>
-      <c r="G8">
-        <v>1206.738065467945</v>
+        <v>0.07760013590534152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>1286.311049912397</v>
+        <v>102.7608563225567</v>
       </c>
       <c r="I8">
-        <v>2707.907833604478</v>
+        <v>0.09590000000000001</v>
       </c>
       <c r="J8">
-        <v>0.8722562675051145</v>
+        <v>0.07579980211055963</v>
       </c>
       <c r="K8">
-        <v>24.05623075759233</v>
+        <v>1286.305769575222</v>
       </c>
       <c r="L8">
-        <v>0.5269407630386118</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="M8">
-        <v>1.744512535010229</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
+        <v>1225.734453883202</v>
+      </c>
+      <c r="N8">
+        <v>1286.305769575222</v>
       </c>
       <c r="O8">
-        <v>1389.068429699507</v>
+        <v>2754.390921029473</v>
       </c>
       <c r="P8">
-        <v>1781.550253285428</v>
+        <v>0.8604943798131957</v>
       </c>
       <c r="Q8">
-        <v>1389.068379697007</v>
+        <v>20.66506627350947</v>
       </c>
       <c r="R8">
-        <v>3838.341257642086</v>
+        <v>0.5693315715150832</v>
       </c>
       <c r="S8">
-        <v>0.9460779548417512</v>
+        <v>1.720988759626391</v>
+      </c>
+      <c r="T8" t="s">
+        <v>101</v>
       </c>
       <c r="U8">
-        <v>16.70372608008259</v>
+        <v>1389.066625897779</v>
       </c>
       <c r="V8">
-        <v>0.2021049621120038</v>
+        <v>0.024</v>
       </c>
       <c r="W8">
-        <v>1.892155909683502</v>
-      </c>
-      <c r="X8" t="s">
-        <v>90</v>
+        <v>1771.943342804052</v>
+      </c>
+      <c r="X8">
+        <v>1389.066625897779</v>
+      </c>
+      <c r="Y8">
+        <v>3757.470895723703</v>
+      </c>
+      <c r="Z8">
+        <v>0.9489251777263927</v>
       </c>
       <c r="AB8">
-        <v>1410.597199848534</v>
+        <v>7.531112200537301</v>
       </c>
       <c r="AC8">
-        <v>389.9339283035096</v>
+        <v>0.1473436455455856</v>
       </c>
       <c r="AD8">
-        <v>1.232647138951796</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS8">
+        <v>1.897850355452785</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ8">
         <v>1</v>
       </c>
-      <c r="AY8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ8">
+      <c r="BF8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG8">
         <v>10291</v>
       </c>
-      <c r="BB8">
-        <v>1.000340322610366</v>
-      </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:60">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1796,106 +1946,115 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>102.9473251810915</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
+        <v>102.9248930927566</v>
+      </c>
+      <c r="D9">
+        <v>102.9569660585792</v>
       </c>
       <c r="E9">
-        <v>102.9080920021697</v>
+        <v>102.892820126934</v>
       </c>
       <c r="F9">
-        <v>1286.33706515728</v>
-      </c>
-      <c r="G9">
-        <v>3522.05815481099</v>
+        <v>0.03207296582257787</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>1286.33706515728</v>
+        <v>102.8856684605723</v>
       </c>
       <c r="I9">
-        <v>8830.299463350146</v>
+        <v>0.039</v>
       </c>
       <c r="J9">
-        <v>0.9566356439761422</v>
+        <v>0.02775211703636319</v>
       </c>
       <c r="K9">
-        <v>26.22660741756057</v>
+        <v>1286.347097011865</v>
       </c>
       <c r="L9">
-        <v>0.5924474021189227</v>
+        <v>0.0217</v>
       </c>
       <c r="M9">
-        <v>1.913271287952284</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
+        <v>3436.284862619736</v>
+      </c>
+      <c r="N9">
+        <v>1286.347097011865</v>
       </c>
       <c r="O9">
-        <v>1389.24520716195</v>
+        <v>8539.968349673847</v>
       </c>
       <c r="P9">
-        <v>5288.489589012958</v>
+        <v>0.9757434592677852</v>
       </c>
       <c r="Q9">
-        <v>1389.245157159449</v>
+        <v>18.10021413404703</v>
       </c>
       <c r="R9">
-        <v>13139.06298968382</v>
+        <v>0.507601395849675</v>
       </c>
       <c r="S9">
-        <v>1.045223622870332</v>
+        <v>1.95148691853557</v>
+      </c>
+      <c r="T9" t="s">
+        <v>101</v>
       </c>
       <c r="U9">
-        <v>29.25722906128841</v>
+        <v>1389.232765472437</v>
       </c>
       <c r="V9">
-        <v>0.3240797125812832</v>
+        <v>0.0173</v>
       </c>
       <c r="W9">
-        <v>2.090447245740664</v>
-      </c>
-      <c r="X9" t="s">
-        <v>90</v>
+        <v>5127.78575132309</v>
+      </c>
+      <c r="X9">
+        <v>1389.232765472437</v>
+      </c>
+      <c r="Y9">
+        <v>12171.61137081347</v>
+      </c>
+      <c r="Z9">
+        <v>1.068510143009594</v>
       </c>
       <c r="AB9">
-        <v>1410.419746312861</v>
+        <v>46.31114133378126</v>
       </c>
       <c r="AC9">
-        <v>1322.528961192593</v>
+        <v>0.1282857156594989</v>
       </c>
       <c r="AD9">
-        <v>0.7198688748911239</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS9">
+        <v>2.137020286019188</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ9">
         <v>1</v>
       </c>
-      <c r="AY9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ9">
+      <c r="BF9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BG9">
         <v>15476</v>
       </c>
-      <c r="BB9">
-        <v>1.00038124483856</v>
-      </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:60">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1903,106 +2062,115 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>102.9094520554734</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
+        <v>102.8981282070888</v>
+      </c>
+      <c r="D10">
+        <v>102.9304736930471</v>
       </c>
       <c r="E10">
-        <v>102.8699791414067</v>
+        <v>102.8657827211306</v>
       </c>
       <c r="F10">
-        <v>1286.225905268246</v>
-      </c>
-      <c r="G10">
-        <v>7220.701992233377</v>
+        <v>0.03234548595824623</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>1286.225905268246</v>
+        <v>102.8586596344933</v>
       </c>
       <c r="I10">
-        <v>15965.3992725293</v>
+        <v>0.0363</v>
       </c>
       <c r="J10">
-        <v>0.8472861277144058</v>
+        <v>0.02807935184437134</v>
       </c>
       <c r="K10">
-        <v>32.95295691208212</v>
+        <v>1286.23272272704</v>
       </c>
       <c r="L10">
-        <v>0.5758917881770023</v>
+        <v>0.0262</v>
       </c>
       <c r="M10">
-        <v>1.694572255428812</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
+        <v>7052.842124138472</v>
+      </c>
+      <c r="N10">
+        <v>1286.23272272704</v>
       </c>
       <c r="O10">
-        <v>1389.095934412153</v>
+        <v>15731.47093164773</v>
       </c>
       <c r="P10">
-        <v>9931.910171821643</v>
+        <v>0.866843187883759</v>
       </c>
       <c r="Q10">
-        <v>1389.095884409653</v>
+        <v>16.80391188745645</v>
       </c>
       <c r="R10">
-        <v>23532.47700967595</v>
+        <v>0.5362310800624466</v>
       </c>
       <c r="S10">
-        <v>0.9956539364045248</v>
+        <v>1.733686375767518</v>
+      </c>
+      <c r="T10" t="s">
+        <v>101</v>
       </c>
       <c r="U10">
-        <v>33.30569549840243</v>
+        <v>1389.091382361533</v>
       </c>
       <c r="V10">
-        <v>0.3271654304109221</v>
+        <v>0.0101</v>
       </c>
       <c r="W10">
-        <v>1.99130787280905</v>
-      </c>
-      <c r="X10" t="s">
-        <v>90</v>
+        <v>9811.015132813072</v>
+      </c>
+      <c r="X10">
+        <v>1389.091382361533</v>
+      </c>
+      <c r="Y10">
+        <v>22769.07026967284</v>
+      </c>
+      <c r="Z10">
+        <v>1.002453143164843</v>
       </c>
       <c r="AB10">
-        <v>1410.361221083588</v>
+        <v>45.19895633343032</v>
       </c>
       <c r="AC10">
-        <v>2607.957257880065</v>
+        <v>0.2415656019034774</v>
       </c>
       <c r="AD10">
-        <v>0.4420445881704602</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS10">
+        <v>2.004906286329685</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ10">
         <v>1</v>
       </c>
-      <c r="AY10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ10">
+      <c r="BF10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG10">
         <v>15809</v>
       </c>
-      <c r="BB10">
-        <v>1.00038371655556</v>
-      </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:60">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2010,106 +2178,115 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>102.9251390731159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
+        <v>102.9113530960618</v>
+      </c>
+      <c r="D11">
+        <v>102.9422060925302</v>
       </c>
       <c r="E11">
-        <v>102.885461501075</v>
+        <v>102.8805000995935</v>
       </c>
       <c r="F11">
-        <v>1286.327966782648</v>
-      </c>
-      <c r="G11">
-        <v>4023.009193485474</v>
+        <v>0.03085299646833185</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
       </c>
       <c r="H11">
-        <v>1286.327966782648</v>
+        <v>102.8716808365789</v>
       </c>
       <c r="I11">
-        <v>10169.58231660839</v>
+        <v>0.0367</v>
       </c>
       <c r="J11">
-        <v>0.9695283982803559</v>
+        <v>0.02635469597623923</v>
       </c>
       <c r="K11">
-        <v>27.59655671805853</v>
+        <v>1286.333840687942</v>
       </c>
       <c r="L11">
-        <v>0.5762663189803748</v>
+        <v>0.0216</v>
       </c>
       <c r="M11">
-        <v>1.939056796560712</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
+        <v>3966.371804594418</v>
+      </c>
+      <c r="N11">
+        <v>1286.333840687942</v>
       </c>
       <c r="O11">
-        <v>1389.213428283723</v>
+        <v>9983.983238961451</v>
       </c>
       <c r="P11">
-        <v>6078.563254230005</v>
+        <v>0.9810989826787665</v>
       </c>
       <c r="Q11">
-        <v>1389.213428283723</v>
+        <v>17.42795714844268</v>
       </c>
       <c r="R11">
-        <v>15047.15920166486</v>
+        <v>0.5287680966181593</v>
       </c>
       <c r="S11">
-        <v>1.059591606659775</v>
+        <v>1.962197965357533</v>
+      </c>
+      <c r="T11" t="s">
+        <v>101</v>
       </c>
       <c r="U11">
-        <v>27.13795897205863</v>
+        <v>1389.205521524521</v>
       </c>
       <c r="V11">
-        <v>0.2752685531561275</v>
+        <v>0.0151</v>
       </c>
       <c r="W11">
-        <v>2.119183213319551</v>
-      </c>
-      <c r="X11" t="s">
-        <v>90</v>
+        <v>5953.524336366528</v>
+      </c>
+      <c r="X11">
+        <v>1389.205521524521</v>
+      </c>
+      <c r="Y11">
+        <v>14194.91759445151</v>
+      </c>
+      <c r="Z11">
+        <v>1.073365561273918</v>
       </c>
       <c r="AB11">
-        <v>1410.496323236546</v>
+        <v>45.27032974604681</v>
       </c>
       <c r="AC11">
-        <v>1054.109143004536</v>
+        <v>0.1276114331474831</v>
       </c>
       <c r="AD11">
-        <v>1.012109308764504</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS11">
+        <v>2.146731122547836</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ11">
         <v>1</v>
       </c>
-      <c r="AY11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ11">
+      <c r="BF11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG11">
         <v>16071</v>
       </c>
-      <c r="BB11">
-        <v>1.000385647995956</v>
-      </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:60">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2117,106 +2294,115 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>102.7197356631123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
+        <v>102.7234067809158</v>
+      </c>
+      <c r="D12">
+        <v>102.7514843485325</v>
       </c>
       <c r="E12">
-        <v>102.681924145043</v>
+        <v>102.6953292132991</v>
       </c>
       <c r="F12">
-        <v>1286.744269074002</v>
-      </c>
-      <c r="G12">
-        <v>2413.627116500184</v>
+        <v>0.02807756761667804</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
       </c>
       <c r="H12">
-        <v>1286.744269074002</v>
+        <v>102.6855939087386</v>
       </c>
       <c r="I12">
-        <v>5114.079446855475</v>
+        <v>0.0324</v>
       </c>
       <c r="J12">
-        <v>0.9878349121952636</v>
+        <v>0.02296301373948986</v>
       </c>
       <c r="K12">
-        <v>28.66511700125293</v>
+        <v>1286.744358053018</v>
       </c>
       <c r="L12">
-        <v>0.03046727262352261</v>
+        <v>0.0173</v>
       </c>
       <c r="M12">
-        <v>1.975669824390527</v>
-      </c>
-      <c r="N12" t="s">
-        <v>90</v>
+        <v>2405.632891477803</v>
+      </c>
+      <c r="N12">
+        <v>1286.744358053018</v>
       </c>
       <c r="O12">
-        <v>1389.426193219045</v>
+        <v>5063.691338117614</v>
       </c>
       <c r="P12">
-        <v>3618.155912745734</v>
+        <v>0.9890983613312195</v>
       </c>
       <c r="Q12">
-        <v>1389.426193219045</v>
+        <v>17.7551462239471</v>
       </c>
       <c r="R12">
-        <v>7825.790960761151</v>
+        <v>2.632693346660275E-08</v>
       </c>
       <c r="S12">
-        <v>1.015965028409881</v>
+        <v>1.978196722662439</v>
+      </c>
+      <c r="T12" t="s">
+        <v>101</v>
       </c>
       <c r="U12">
-        <v>21.16580695894754</v>
+        <v>1389.429951961757</v>
       </c>
       <c r="V12">
-        <v>9.021961511201937E-10</v>
+        <v>0.0151</v>
       </c>
       <c r="W12">
-        <v>2.031930056819761</v>
-      </c>
-      <c r="X12" t="s">
-        <v>90</v>
+        <v>3724.976829592213</v>
+      </c>
+      <c r="X12">
+        <v>1389.429951961757</v>
+      </c>
+      <c r="Y12">
+        <v>8237.570566944096</v>
+      </c>
+      <c r="Z12">
+        <v>0.9960435930753035</v>
       </c>
       <c r="AB12">
-        <v>1410.694321054983</v>
+        <v>40.99100908135826</v>
       </c>
       <c r="AC12">
-        <v>1163.827759507055</v>
+        <v>0.1287373961057651</v>
       </c>
       <c r="AD12">
-        <v>0.9565054663711626</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS12">
+        <v>1.992087186150607</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ12">
         <v>1</v>
       </c>
-      <c r="AY12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ12">
+      <c r="BF12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG12">
         <v>13764</v>
       </c>
-      <c r="BB12">
-        <v>1.000368239282465</v>
-      </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:60">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2224,106 +2410,115 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>102.7186706509873</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
+        <v>102.7207668820256</v>
+      </c>
+      <c r="D13">
+        <v>102.7688480414166</v>
       </c>
       <c r="E13">
-        <v>102.6805832358491</v>
+        <v>102.6726857226346</v>
       </c>
       <c r="F13">
-        <v>1286.733661169378</v>
-      </c>
-      <c r="G13">
-        <v>1614.751457654623</v>
+        <v>0.04808115939103093</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>1286.733661169378</v>
+        <v>102.6826786870029</v>
       </c>
       <c r="I13">
-        <v>3250.999788583541</v>
+        <v>0.0633</v>
       </c>
       <c r="J13">
-        <v>0.9251820702062981</v>
+        <v>0.04528233651215449</v>
       </c>
       <c r="K13">
-        <v>28.05411845613767</v>
+        <v>1286.733894999776</v>
       </c>
       <c r="L13">
-        <v>0.06959734258670291</v>
+        <v>0.0365</v>
       </c>
       <c r="M13">
-        <v>1.850364140412596</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
+        <v>1606.036848909298</v>
+      </c>
+      <c r="N13">
+        <v>1286.733894999776</v>
       </c>
       <c r="O13">
-        <v>1389.414244405227</v>
+        <v>3191.938641802155</v>
       </c>
       <c r="P13">
-        <v>2417.919255396599</v>
+        <v>0.9289808816956656</v>
       </c>
       <c r="Q13">
-        <v>1389.414244405227</v>
+        <v>22.16597931673607</v>
       </c>
       <c r="R13">
-        <v>5051.198755295767</v>
+        <v>0.007900029750480986</v>
       </c>
       <c r="S13">
-        <v>0.9812743733344967</v>
+        <v>1.857961763391331</v>
+      </c>
+      <c r="T13" t="s">
+        <v>101</v>
       </c>
       <c r="U13">
-        <v>27.02772507074142</v>
+        <v>1389.416573686779</v>
       </c>
       <c r="V13">
-        <v>5.499611877013422E-11</v>
+        <v>0.0268</v>
       </c>
       <c r="W13">
-        <v>1.962548746668993</v>
-      </c>
-      <c r="X13" t="s">
-        <v>90</v>
+        <v>2491.580031832922</v>
+      </c>
+      <c r="X13">
+        <v>1389.416573686779</v>
+      </c>
+      <c r="Y13">
+        <v>5399.917392295978</v>
+      </c>
+      <c r="Z13">
+        <v>0.9708110925112733</v>
       </c>
       <c r="AB13">
-        <v>1410.576584599673</v>
+        <v>37.1755277663245</v>
       </c>
       <c r="AC13">
-        <v>958.026422836637</v>
+        <v>0.1442877199776854</v>
       </c>
       <c r="AD13">
-        <v>0.7584413321575874</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS13">
+        <v>1.941622185022547</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ13">
         <v>1</v>
       </c>
-      <c r="AY13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ13">
+      <c r="BF13" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG13">
         <v>14113</v>
       </c>
-      <c r="BB13">
-        <v>1.000370931036209</v>
-      </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:60">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2331,106 +2526,115 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>102.7732922894258</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
+        <v>102.7720749788737</v>
+      </c>
+      <c r="D14">
+        <v>102.8076839718412</v>
       </c>
       <c r="E14">
-        <v>102.734880578319</v>
+        <v>102.7364659859062</v>
       </c>
       <c r="F14">
-        <v>1286.789115029725</v>
-      </c>
-      <c r="G14">
-        <v>1802.073518378887</v>
+        <v>0.03560899296747425</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
       </c>
       <c r="H14">
-        <v>1286.789115029725</v>
+        <v>102.7336637202716</v>
       </c>
       <c r="I14">
-        <v>3979.559710993811</v>
+        <v>0.0418</v>
       </c>
       <c r="J14">
-        <v>0.9721434230800418</v>
+        <v>0.03175059054568907</v>
       </c>
       <c r="K14">
-        <v>21.88877118488108</v>
+        <v>1286.788711582943</v>
       </c>
       <c r="L14">
-        <v>0.2033145740325906</v>
+        <v>0.0291</v>
       </c>
       <c r="M14">
-        <v>1.944286846160084</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
+        <v>1796.449767747421</v>
+      </c>
+      <c r="N14">
+        <v>1286.788711582943</v>
       </c>
       <c r="O14">
-        <v>1389.524045610544</v>
+        <v>3938.731510482201</v>
       </c>
       <c r="P14">
-        <v>2751.276858108638</v>
+        <v>0.9739116928486407</v>
       </c>
       <c r="Q14">
-        <v>1389.523995608044</v>
+        <v>9.778477098013353</v>
       </c>
       <c r="R14">
-        <v>5994.478488206599</v>
+        <v>0.1722443370152878</v>
       </c>
       <c r="S14">
-        <v>0.9757311177679132</v>
+        <v>1.947823385697281</v>
+      </c>
+      <c r="T14" t="s">
+        <v>101</v>
       </c>
       <c r="U14">
-        <v>14.60296034254147</v>
+        <v>1389.522375303215</v>
       </c>
       <c r="V14">
-        <v>0.1446603364953762</v>
+        <v>0.0127</v>
       </c>
       <c r="W14">
-        <v>1.951462235535826</v>
-      </c>
-      <c r="X14" t="s">
-        <v>90</v>
+        <v>3052.928956992046</v>
+      </c>
+      <c r="X14">
+        <v>1389.522375303215</v>
+      </c>
+      <c r="Y14">
+        <v>6450.668193662657</v>
+      </c>
+      <c r="Z14">
+        <v>0.8696871524957525</v>
       </c>
       <c r="AB14">
-        <v>1410.599799167864</v>
+        <v>30.65920048664554</v>
       </c>
       <c r="AC14">
-        <v>828.2513603357188</v>
+        <v>0.3722701691528836</v>
       </c>
       <c r="AD14">
-        <v>0.7339193519726637</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS14">
+        <v>1.739374304991505</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ14">
         <v>1</v>
       </c>
-      <c r="AY14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ14">
+      <c r="BF14" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG14">
         <v>14500</v>
       </c>
-      <c r="BB14">
-        <v>1.000373891621722</v>
-      </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:60">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2438,106 +2642,115 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>102.8302121746016</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
+        <v>102.8345368095331</v>
+      </c>
+      <c r="D15">
+        <v>103.4831762325258</v>
       </c>
       <c r="E15">
-        <v>102.7863917032746</v>
+        <v>102.1858973865404</v>
       </c>
       <c r="F15">
-        <v>1286.641044769061</v>
-      </c>
-      <c r="G15">
-        <v>435.264337751287</v>
+        <v>0.6486394229926579</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
       </c>
       <c r="H15">
-        <v>1286.641044769061</v>
+        <v>102.7907144944927</v>
       </c>
       <c r="I15">
-        <v>1158.774808420543</v>
+        <v>0.761</v>
       </c>
       <c r="J15">
-        <v>0.8747294391523273</v>
+        <v>0.6481674166448048</v>
       </c>
       <c r="K15">
-        <v>19.60791936671801</v>
+        <v>1286.641422430417</v>
       </c>
       <c r="L15">
-        <v>0.9502519757709795</v>
+        <v>0.125</v>
       </c>
       <c r="M15">
-        <v>1.749458878304655</v>
-      </c>
-      <c r="N15" t="s">
-        <v>90</v>
+        <v>426.9453650897502</v>
+      </c>
+      <c r="N15">
+        <v>1286.641422430417</v>
       </c>
       <c r="O15">
-        <v>1389.427486474835</v>
+        <v>1110.570221460785</v>
       </c>
       <c r="P15">
-        <v>1087.089925698818</v>
+        <v>0.9012758386227576</v>
       </c>
       <c r="Q15">
-        <v>1389.427436472335</v>
+        <v>16.27898019977187</v>
       </c>
       <c r="R15">
-        <v>1673.938481893931</v>
+        <v>0.8092547362721668</v>
       </c>
       <c r="S15">
-        <v>0.6210887437710108</v>
+        <v>1.802551677245515</v>
+      </c>
+      <c r="T15" t="s">
+        <v>101</v>
       </c>
       <c r="U15">
-        <v>16.33625522261445</v>
+        <v>1389.43213692491</v>
       </c>
       <c r="V15">
-        <v>0.4389652172784942</v>
+        <v>0.636</v>
       </c>
       <c r="W15">
-        <v>1.242177487542022</v>
-      </c>
-      <c r="X15" t="s">
-        <v>90</v>
+        <v>1138.241246690131</v>
+      </c>
+      <c r="X15">
+        <v>1389.43213692491</v>
+      </c>
+      <c r="Y15">
+        <v>1636.250175572532</v>
+      </c>
+      <c r="Z15">
+        <v>0.6010931384750926</v>
       </c>
       <c r="AB15">
-        <v>1410.444141144135</v>
+        <v>5.755138682871826</v>
       </c>
       <c r="AC15">
-        <v>388.1796870366107</v>
+        <v>0.3401812631231695</v>
       </c>
       <c r="AD15">
-        <v>1.054833721932805</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS15">
+        <v>1.202186276950185</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ15">
         <v>1</v>
       </c>
-      <c r="AY15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ15">
+      <c r="BF15" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG15">
         <v>22015</v>
       </c>
-      <c r="BB15">
-        <v>1.000426325611794</v>
-      </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:60">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2545,106 +2758,115 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>102.8484062154513</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
+        <v>102.8465861325916</v>
+      </c>
+      <c r="D16">
+        <v>103.0634376371855</v>
       </c>
       <c r="E16">
-        <v>102.8043195433772</v>
+        <v>102.6297346279977</v>
       </c>
       <c r="F16">
-        <v>1286.491621517951</v>
-      </c>
-      <c r="G16">
-        <v>463.3680420926002</v>
+        <v>0.2168515045939061</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>1286.491621517951</v>
+        <v>102.8025002399352</v>
       </c>
       <c r="I16">
-        <v>955.6739637627564</v>
+        <v>0.2693</v>
       </c>
       <c r="J16">
-        <v>0.7484540955660969</v>
+        <v>0.2161718991913611</v>
       </c>
       <c r="K16">
-        <v>19.55999435596958</v>
+        <v>1286.496886267254</v>
       </c>
       <c r="L16">
-        <v>0.7285225870324648</v>
+        <v>0.207</v>
       </c>
       <c r="M16">
-        <v>1.496908191132194</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
+        <v>445.9842869627147</v>
+      </c>
+      <c r="N16">
+        <v>1286.496886267254</v>
       </c>
       <c r="O16">
-        <v>1389.295991063828</v>
+        <v>893.5855439675815</v>
       </c>
       <c r="P16">
-        <v>613.8264534297509</v>
+        <v>0.780551729615793</v>
       </c>
       <c r="Q16">
-        <v>1389.295941061328</v>
+        <v>18.53128096090634</v>
       </c>
       <c r="R16">
-        <v>1361.868154826031</v>
+        <v>0.5220039239425017</v>
       </c>
       <c r="S16">
-        <v>1.008663438156559</v>
+        <v>1.561103459231586</v>
+      </c>
+      <c r="T16" t="s">
+        <v>101</v>
       </c>
       <c r="U16">
-        <v>17.04929791738041</v>
+        <v>1389.299386507189</v>
       </c>
       <c r="V16">
-        <v>0.1013236717371634</v>
+        <v>0.0623</v>
       </c>
       <c r="W16">
-        <v>2.017326876313117</v>
-      </c>
-      <c r="X16" t="s">
-        <v>90</v>
+        <v>596.8898747630062</v>
+      </c>
+      <c r="X16">
+        <v>1389.299386507189</v>
+      </c>
+      <c r="Y16">
+        <v>1266.517794930455</v>
+      </c>
+      <c r="Z16">
+        <v>0.985025692140031</v>
       </c>
       <c r="AB16">
-        <v>1410.281744959499</v>
+        <v>10.36845115620433</v>
       </c>
       <c r="AC16">
-        <v>496.1975664110009</v>
+        <v>2.944311461305915E-13</v>
       </c>
       <c r="AD16">
-        <v>1.007633576623516</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS16">
+        <v>1.970051384280062</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ16">
         <v>1</v>
       </c>
-      <c r="AY16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ16">
+      <c r="BF16" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG16">
         <v>22414</v>
       </c>
-      <c r="BB16">
-        <v>1.000428840658349</v>
-      </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:59">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2652,106 +2874,115 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>102.9310213958182</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
+        <v>102.9317445434925</v>
+      </c>
+      <c r="D17">
+        <v>103.332951066339</v>
       </c>
       <c r="E17">
-        <v>102.886619859084</v>
+        <v>102.530538020646</v>
       </c>
       <c r="F17">
-        <v>1286.471245938909</v>
-      </c>
-      <c r="G17">
-        <v>358.308890563801</v>
+        <v>0.4012065228465122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
       </c>
       <c r="H17">
-        <v>1286.471245938909</v>
+        <v>102.8873426940568</v>
       </c>
       <c r="I17">
-        <v>677.9445006895349</v>
+        <v>0.511</v>
       </c>
       <c r="J17">
-        <v>0.8721132175777936</v>
+        <v>0.4007156098781279</v>
       </c>
       <c r="K17">
-        <v>17.18413289298432</v>
+        <v>1286.477002611971</v>
       </c>
       <c r="L17">
-        <v>0.08923019101922808</v>
+        <v>0.133</v>
       </c>
       <c r="M17">
-        <v>1.744226435155587</v>
-      </c>
-      <c r="N17" t="s">
-        <v>90</v>
+        <v>351.666222185053</v>
+      </c>
+      <c r="N17">
+        <v>1286.477002611971</v>
       </c>
       <c r="O17">
-        <v>1389.357865797993</v>
+        <v>655.5443811378315</v>
       </c>
       <c r="P17">
-        <v>960.5455094164397</v>
+        <v>0.877550395777385</v>
       </c>
       <c r="Q17">
-        <v>1389.357865797993</v>
+        <v>13.21271254783123</v>
       </c>
       <c r="R17">
-        <v>1409.613395481067</v>
+        <v>2.107903351866725E-08</v>
       </c>
       <c r="S17">
-        <v>0.5851591092693913</v>
+        <v>1.75510079155477</v>
+      </c>
+      <c r="T17" t="s">
+        <v>101</v>
       </c>
       <c r="U17">
-        <v>11.00729780866478</v>
+        <v>1389.364345306028</v>
       </c>
       <c r="V17">
-        <v>0.4687755062729987</v>
+        <v>0.378</v>
       </c>
       <c r="W17">
-        <v>1.170318218538783</v>
-      </c>
-      <c r="X17" t="s">
-        <v>90</v>
+        <v>1008.404283247618</v>
+      </c>
+      <c r="X17">
+        <v>1389.364345306028</v>
+      </c>
+      <c r="Y17">
+        <v>1430.592187643125</v>
+      </c>
+      <c r="Z17">
+        <v>0.5676457932443846</v>
       </c>
       <c r="AB17">
-        <v>1410.15250598425</v>
+        <v>2.635202349962672</v>
       </c>
       <c r="AC17">
-        <v>291.8271190047095</v>
+        <v>0.45706532035669</v>
       </c>
       <c r="AD17">
-        <v>1.127011347526245</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS17">
+        <v>1.135291586488769</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ17">
         <v>1</v>
       </c>
-      <c r="AY17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ17">
+      <c r="BF17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG17">
         <v>22850</v>
       </c>
-      <c r="BB17">
-        <v>1.000431557930419</v>
-      </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:59">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2759,106 +2990,115 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>102.6450562508945</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
+        <v>102.6294831746518</v>
+      </c>
+      <c r="D18">
+        <v>102.7718583918908</v>
       </c>
       <c r="E18">
-        <v>102.6004907944759</v>
+        <v>102.4871079574129</v>
       </c>
       <c r="F18">
-        <v>1286.798387022337</v>
-      </c>
-      <c r="G18">
-        <v>386.4362022610113</v>
+        <v>0.1423752172389497</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>1286.798387022337</v>
+        <v>102.5849244788601</v>
       </c>
       <c r="I18">
-        <v>827.8254961695607</v>
+        <v>0.1942</v>
       </c>
       <c r="J18">
-        <v>0.9415949731230547</v>
+        <v>0.141418669206014</v>
       </c>
       <c r="K18">
-        <v>20.43287129329144</v>
+        <v>1286.800139030752</v>
       </c>
       <c r="L18">
-        <v>0.1993184090375956</v>
+        <v>0.121</v>
       </c>
       <c r="M18">
-        <v>1.883189946246109</v>
-      </c>
-      <c r="N18" t="s">
-        <v>90</v>
+        <v>386.8737100324295</v>
+      </c>
+      <c r="N18">
+        <v>1286.800139030752</v>
       </c>
       <c r="O18">
-        <v>1389.398927819313</v>
+        <v>837.8189878594943</v>
       </c>
       <c r="P18">
-        <v>748.0409270003902</v>
+        <v>0.9393066137493329</v>
       </c>
       <c r="Q18">
-        <v>1389.398877816813</v>
+        <v>15.90052951569768</v>
       </c>
       <c r="R18">
-        <v>1624.250201410449</v>
+        <v>0.2349074092674544</v>
       </c>
       <c r="S18">
-        <v>0.8647954806004835</v>
+        <v>1.878613227498666</v>
+      </c>
+      <c r="T18" t="s">
+        <v>101</v>
       </c>
       <c r="U18">
-        <v>19.2429770173943</v>
+        <v>1389.385063509612</v>
       </c>
       <c r="V18">
-        <v>0.4731490239979545</v>
+        <v>0.0732</v>
       </c>
       <c r="W18">
-        <v>1.729590961200967</v>
-      </c>
-      <c r="X18" t="s">
-        <v>90</v>
+        <v>670.4887674140822</v>
+      </c>
+      <c r="X18">
+        <v>1389.385063509612</v>
+      </c>
+      <c r="Y18">
+        <v>1412.935638853612</v>
+      </c>
+      <c r="Z18">
+        <v>0.9509926750081378</v>
       </c>
       <c r="AB18">
-        <v>1410.379238204627</v>
+        <v>23.92253918067328</v>
       </c>
       <c r="AC18">
-        <v>541.0464531497427</v>
+        <v>0.1330149253551263</v>
       </c>
       <c r="AD18">
-        <v>0.9516155378467643</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS18">
+        <v>1.901985350016276</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ18">
         <v>1</v>
       </c>
-      <c r="AY18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AZ18">
+      <c r="BF18" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG18">
         <v>23305</v>
       </c>
-      <c r="BB18">
-        <v>1.000434359095882</v>
-      </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:59">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2866,106 +3106,115 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>102.6930407746329</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
+        <v>102.7099162848057</v>
+      </c>
+      <c r="D19">
+        <v>102.7791000897406</v>
       </c>
       <c r="E19">
-        <v>102.6481942552991</v>
+        <v>102.6407324798707</v>
       </c>
       <c r="F19">
-        <v>1286.573997385663</v>
-      </c>
-      <c r="G19">
-        <v>984.8210979230105</v>
+        <v>0.06918380493491236</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
       </c>
       <c r="H19">
-        <v>1286.573997385663</v>
+        <v>102.6650623951173</v>
       </c>
       <c r="I19">
-        <v>2009.977841824973</v>
+        <v>0.09340000000000001</v>
       </c>
       <c r="J19">
-        <v>0.9259452644132061</v>
+        <v>0.06728595693010542</v>
       </c>
       <c r="K19">
-        <v>28.2683517272161</v>
+        <v>1286.575726400189</v>
       </c>
       <c r="L19">
-        <v>0.108507890780533</v>
+        <v>0.0558</v>
       </c>
       <c r="M19">
-        <v>1.851890528826412</v>
-      </c>
-      <c r="N19" t="s">
-        <v>90</v>
+        <v>980.3646455193146</v>
+      </c>
+      <c r="N19">
+        <v>1286.575726400189</v>
       </c>
       <c r="O19">
-        <v>1389.222191640963</v>
+        <v>1988.263602442445</v>
       </c>
       <c r="P19">
-        <v>1536.918983221817</v>
+        <v>0.9286364852084745</v>
       </c>
       <c r="Q19">
-        <v>1389.222191640963</v>
+        <v>21.8567670509551</v>
       </c>
       <c r="R19">
-        <v>2965.832989642902</v>
+        <v>0.07298001410635124</v>
       </c>
       <c r="S19">
-        <v>0.9064284121048781</v>
+        <v>1.857272970416949</v>
+      </c>
+      <c r="T19" t="s">
+        <v>101</v>
       </c>
       <c r="U19">
-        <v>19.75576755297575</v>
+        <v>1389.240788795306</v>
       </c>
       <c r="V19">
-        <v>5.551115123125783E-17</v>
+        <v>0.0376</v>
       </c>
       <c r="W19">
-        <v>1.812856824209756</v>
-      </c>
-      <c r="X19" t="s">
-        <v>90</v>
+        <v>1619.057185323774</v>
+      </c>
+      <c r="X19">
+        <v>1389.240788795306</v>
+      </c>
+      <c r="Y19">
+        <v>3267.244138311103</v>
+      </c>
+      <c r="Z19">
+        <v>0.8741645094337456</v>
       </c>
       <c r="AB19">
-        <v>1410.329970196421</v>
+        <v>9.941498105114729</v>
       </c>
       <c r="AC19">
-        <v>932.1319934833864</v>
+        <v>0.2393111489404458</v>
       </c>
       <c r="AD19">
-        <v>0.4915073654543949</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS19">
-        <v>1</v>
+        <v>1.748329018867491</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>146</v>
       </c>
       <c r="AY19" t="s">
         <v>147</v>
       </c>
       <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG19">
         <v>23722</v>
       </c>
-      <c r="BB19">
-        <v>1.000436895355628</v>
-      </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:59">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2973,106 +3222,115 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>102.6137360852848</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
+        <v>102.6072451542187</v>
+      </c>
+      <c r="D20">
+        <v>102.752889931565</v>
       </c>
       <c r="E20">
-        <v>102.5684781272168</v>
+        <v>102.4616003768725</v>
       </c>
       <c r="F20">
-        <v>1286.781190614447</v>
-      </c>
-      <c r="G20">
-        <v>369.4355193964985</v>
+        <v>0.1456447773462522</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
       </c>
       <c r="H20">
-        <v>1286.781190614447</v>
+        <v>102.561990058231</v>
       </c>
       <c r="I20">
-        <v>761.3153726917329</v>
+        <v>0.2045</v>
       </c>
       <c r="J20">
-        <v>0.9731144579080604</v>
+        <v>0.1447005528669466</v>
       </c>
       <c r="K20">
-        <v>19.12102705141448</v>
+        <v>1286.78115634091</v>
       </c>
       <c r="L20">
-        <v>2.83500804498793E-08</v>
+        <v>0.0985</v>
       </c>
       <c r="M20">
-        <v>1.946228915816121</v>
-      </c>
-      <c r="N20" t="s">
-        <v>90</v>
+        <v>366.334297996409</v>
+      </c>
+      <c r="N20">
+        <v>1286.78115634091</v>
       </c>
       <c r="O20">
-        <v>1389.349668741664</v>
+        <v>754.7492970886685</v>
       </c>
       <c r="P20">
-        <v>620.7927794928229</v>
+        <v>0.968544200035986</v>
       </c>
       <c r="Q20">
-        <v>1389.349668741664</v>
+        <v>15.76619870512704</v>
       </c>
       <c r="R20">
-        <v>1205.044523409177</v>
+        <v>5.539118513864238E-08</v>
       </c>
       <c r="S20">
-        <v>0.9117887504662502</v>
+        <v>1.937088400071972</v>
+      </c>
+      <c r="T20" t="s">
+        <v>101</v>
       </c>
       <c r="U20">
-        <v>17.79355402601108</v>
+        <v>1389.343146399141</v>
       </c>
       <c r="V20">
-        <v>5.551115123125783E-17</v>
+        <v>0.106</v>
       </c>
       <c r="W20">
-        <v>1.8235775009325</v>
-      </c>
-      <c r="X20" t="s">
-        <v>90</v>
+        <v>628.8112831708132</v>
+      </c>
+      <c r="X20">
+        <v>1389.343146399141</v>
+      </c>
+      <c r="Y20">
+        <v>1275.929365001387</v>
+      </c>
+      <c r="Z20">
+        <v>0.9270964660037208</v>
       </c>
       <c r="AB20">
-        <v>1410.3010621845</v>
+        <v>24.60914308852064</v>
       </c>
       <c r="AC20">
-        <v>447.3671241647439</v>
+        <v>0.1013541619560126</v>
       </c>
       <c r="AD20">
-        <v>0.5050625427917591</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS20">
+        <v>1.854192932007442</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ20">
         <v>1</v>
       </c>
-      <c r="AY20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ20">
+      <c r="BF20" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG20">
         <v>24449</v>
       </c>
-      <c r="BB20">
-        <v>1.00044124626683</v>
-      </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:59">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3080,106 +3338,115 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>102.7162549142476</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
+        <v>102.7146478006742</v>
+      </c>
+      <c r="D21">
+        <v>102.7673475142508</v>
       </c>
       <c r="E21">
-        <v>102.6703296358119</v>
+        <v>102.6619480870976</v>
       </c>
       <c r="F21">
-        <v>1286.480205771355</v>
-      </c>
-      <c r="G21">
-        <v>2040.342788195842</v>
+        <v>0.05269971357659533</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
       </c>
       <c r="H21">
-        <v>1286.480205771355</v>
+        <v>102.6687232399777</v>
       </c>
       <c r="I21">
-        <v>4037.07862376027</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="J21">
-        <v>0.926518490821846</v>
+        <v>0.05016781836994708</v>
       </c>
       <c r="K21">
-        <v>45.39038357853781</v>
+        <v>1286.479471468278</v>
       </c>
       <c r="L21">
-        <v>0.02173392328456775</v>
+        <v>0.044</v>
       </c>
       <c r="M21">
-        <v>1.853036981643692</v>
-      </c>
-      <c r="N21" t="s">
-        <v>90</v>
+        <v>2026.123523966745</v>
+      </c>
+      <c r="N21">
+        <v>1286.479471468278</v>
       </c>
       <c r="O21">
-        <v>1389.150585409667</v>
+        <v>3984.864337385918</v>
       </c>
       <c r="P21">
-        <v>3148.269227624803</v>
+        <v>0.9241155746656174</v>
       </c>
       <c r="Q21">
-        <v>1389.150535407167</v>
+        <v>24.88951805254678</v>
       </c>
       <c r="R21">
-        <v>6802.178318703645</v>
+        <v>1.920685832601521E-14</v>
       </c>
       <c r="S21">
-        <v>0.944416432891264</v>
+        <v>1.848231149331235</v>
+      </c>
+      <c r="T21" t="s">
+        <v>101</v>
       </c>
       <c r="U21">
-        <v>26.2621521995728</v>
+        <v>1389.148194708255</v>
       </c>
       <c r="V21">
-        <v>0.2155719570975127</v>
+        <v>0.0241</v>
       </c>
       <c r="W21">
-        <v>1.888832865782528</v>
-      </c>
-      <c r="X21" t="s">
-        <v>90</v>
+        <v>3145.548030965334</v>
+      </c>
+      <c r="X21">
+        <v>1389.148194708255</v>
+      </c>
+      <c r="Y21">
+        <v>6846.726422218132</v>
+      </c>
+      <c r="Z21">
+        <v>0.9469201516487568</v>
       </c>
       <c r="AB21">
-        <v>1410.481371623903</v>
+        <v>25.63337487819951</v>
       </c>
       <c r="AC21">
-        <v>747.6075651823415</v>
+        <v>0.2256105415988635</v>
       </c>
       <c r="AD21">
-        <v>1.069771045606356</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS21">
+        <v>1.893840303297514</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ21">
         <v>1</v>
       </c>
-      <c r="AY21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ21">
+      <c r="BF21" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG21">
         <v>25488</v>
       </c>
-      <c r="BB21">
-        <v>1.000447308181425</v>
-      </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:59">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3187,106 +3454,115 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>102.680940262573</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
+        <v>102.6789002067042</v>
+      </c>
+      <c r="D22">
+        <v>102.7185126522657</v>
       </c>
       <c r="E22">
-        <v>102.6348016278453</v>
+        <v>102.6392877611426</v>
       </c>
       <c r="F22">
-        <v>1286.426876632096</v>
-      </c>
-      <c r="G22">
-        <v>2460.287898074755</v>
+        <v>0.03961244556157213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>1286.426876632096</v>
+        <v>102.6327624878072</v>
       </c>
       <c r="I22">
-        <v>5140.428514659</v>
+        <v>0.0487</v>
       </c>
       <c r="J22">
-        <v>0.9659505414007854</v>
+        <v>0.03618134878635677</v>
       </c>
       <c r="K22">
-        <v>36.69619105103804</v>
+        <v>1286.429439895466</v>
       </c>
       <c r="L22">
-        <v>0.05696598403979475</v>
+        <v>0.0322</v>
       </c>
       <c r="M22">
-        <v>1.931901082801571</v>
-      </c>
-      <c r="N22" t="s">
-        <v>90</v>
+        <v>2445.473702832465</v>
+      </c>
+      <c r="N22">
+        <v>1286.429439895466</v>
       </c>
       <c r="O22">
-        <v>1389.061678259941</v>
+        <v>5078.114617189852</v>
       </c>
       <c r="P22">
-        <v>3785.945621643044</v>
+        <v>0.9692788904469462</v>
       </c>
       <c r="Q22">
-        <v>1389.061678259941</v>
+        <v>19.57895880005913</v>
       </c>
       <c r="R22">
-        <v>8022.921099211243</v>
+        <v>0.02000755848689895</v>
       </c>
       <c r="S22">
-        <v>0.936534878507354</v>
+        <v>1.938557780893892</v>
+      </c>
+      <c r="T22" t="s">
+        <v>101</v>
       </c>
       <c r="U22">
-        <v>21.66375527168431</v>
+        <v>1389.062202383273</v>
       </c>
       <c r="V22">
-        <v>0.1834510792346982</v>
+        <v>0.0165</v>
       </c>
       <c r="W22">
-        <v>1.873069757014708</v>
-      </c>
-      <c r="X22" t="s">
-        <v>90</v>
+        <v>3788.563847229946</v>
+      </c>
+      <c r="X22">
+        <v>1389.062202383273</v>
+      </c>
+      <c r="Y22">
+        <v>8101.399992962912</v>
+      </c>
+      <c r="Z22">
+        <v>0.9351185754941427</v>
       </c>
       <c r="AB22">
-        <v>1410.376707075025</v>
+        <v>5.757324187299962</v>
       </c>
       <c r="AC22">
-        <v>943.4902416997346</v>
+        <v>0.2087210498431486</v>
       </c>
       <c r="AD22">
-        <v>0.9449054496154625</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS22">
+        <v>1.870237150988285</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ22">
         <v>1</v>
       </c>
-      <c r="AY22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ22">
+      <c r="BF22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG22">
         <v>25879</v>
       </c>
-      <c r="BB22">
-        <v>1.000449541812289</v>
-      </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:59">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3294,106 +3570,115 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>102.7133631881406</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
+        <v>102.7261630687846</v>
+      </c>
+      <c r="D23">
+        <v>102.7613986579946</v>
       </c>
       <c r="E23">
-        <v>102.666971347403</v>
+        <v>102.6909274795746</v>
       </c>
       <c r="F23">
-        <v>1286.457947838444</v>
-      </c>
-      <c r="G23">
-        <v>2612.747555954442</v>
+        <v>0.03523558921000883</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>1286.457947838444</v>
+        <v>102.6797654459226</v>
       </c>
       <c r="I23">
-        <v>5618.962726249405</v>
+        <v>0.0435</v>
       </c>
       <c r="J23">
-        <v>0.9554347659079307</v>
+        <v>0.03131405435263853</v>
       </c>
       <c r="K23">
-        <v>29.59050335628854</v>
+        <v>1286.459979619039</v>
       </c>
       <c r="L23">
-        <v>0.1716105163237993</v>
+        <v>0.0259</v>
       </c>
       <c r="M23">
-        <v>1.910869531815861</v>
-      </c>
-      <c r="N23" t="s">
-        <v>90</v>
+        <v>2601.075199005698</v>
+      </c>
+      <c r="N23">
+        <v>1286.459979619039</v>
       </c>
       <c r="O23">
-        <v>1389.124969188347</v>
+        <v>5570.13442639925</v>
       </c>
       <c r="P23">
-        <v>3880.90713560766</v>
+        <v>0.9580960179520611</v>
       </c>
       <c r="Q23">
-        <v>1389.124919185847</v>
+        <v>19.15594310837286</v>
       </c>
       <c r="R23">
-        <v>8011.027832725596</v>
+        <v>0.1452162963762343</v>
       </c>
       <c r="S23">
-        <v>0.9696003936651183</v>
+        <v>1.916192035904122</v>
+      </c>
+      <c r="T23" t="s">
+        <v>101</v>
       </c>
       <c r="U23">
-        <v>28.86466381893128</v>
+        <v>1389.139745064961</v>
       </c>
       <c r="V23">
-        <v>1.293409823688307E-14</v>
+        <v>0.0176</v>
       </c>
       <c r="W23">
-        <v>1.939200787330237</v>
-      </c>
-      <c r="X23" t="s">
-        <v>90</v>
+        <v>4005.636682685391</v>
+      </c>
+      <c r="X23">
+        <v>1389.139745064961</v>
+      </c>
+      <c r="Y23">
+        <v>8826.948080498389</v>
+      </c>
+      <c r="Z23">
+        <v>0.9496995314183077</v>
       </c>
       <c r="AB23">
-        <v>1410.302176153826</v>
+        <v>24.89470928503443</v>
       </c>
       <c r="AC23">
-        <v>1242.450446000606</v>
+        <v>0.2502123455899547</v>
       </c>
       <c r="AD23">
-        <v>0.5531963473293765</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS23">
+        <v>1.899399062836615</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ23">
         <v>1</v>
       </c>
-      <c r="AY23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ23">
+      <c r="BF23" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG23">
         <v>26291</v>
       </c>
-      <c r="BB23">
-        <v>1.000451867237621</v>
-      </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:59">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3401,106 +3686,115 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>102.7287038520576</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
+        <v>102.7600441056631</v>
+      </c>
+      <c r="D24">
+        <v>103.1459970744638</v>
       </c>
       <c r="E24">
-        <v>102.6865991423754</v>
+        <v>102.3740911368624</v>
       </c>
       <c r="F24">
-        <v>1286.75408522217</v>
-      </c>
-      <c r="G24">
-        <v>425.509235291439</v>
+        <v>0.3859529688007259</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
       </c>
       <c r="H24">
-        <v>1286.75408522217</v>
+        <v>102.7179265496761</v>
       </c>
       <c r="I24">
-        <v>761.5968129691551</v>
+        <v>0.473</v>
       </c>
       <c r="J24">
-        <v>0.8280444065916052</v>
+        <v>0.385467248933032</v>
       </c>
       <c r="K24">
-        <v>19.79839134639115</v>
+        <v>1286.75368767639</v>
       </c>
       <c r="L24">
-        <v>5.939817526723346E-10</v>
+        <v>0.101</v>
       </c>
       <c r="M24">
-        <v>1.65608881318321</v>
-      </c>
-      <c r="N24" t="s">
-        <v>90</v>
+        <v>436.2719863259741</v>
+      </c>
+      <c r="N24">
+        <v>1286.75368767639</v>
       </c>
       <c r="O24">
-        <v>1389.440684364546</v>
+        <v>784.7275552363631</v>
       </c>
       <c r="P24">
-        <v>966.0209908418811</v>
+        <v>0.8433944634824359</v>
       </c>
       <c r="Q24">
-        <v>1389.440684364546</v>
+        <v>16.30150003521954</v>
       </c>
       <c r="R24">
-        <v>1556.267491003709</v>
+        <v>2.590160086413107E-09</v>
       </c>
       <c r="S24">
-        <v>0.6199172017598487</v>
+        <v>1.686788926964872</v>
+      </c>
+      <c r="T24" t="s">
+        <v>101</v>
       </c>
       <c r="U24">
-        <v>16.4487602218505</v>
+        <v>1389.471614226066</v>
       </c>
       <c r="V24">
-        <v>0.5608513433222618</v>
+        <v>0.372</v>
       </c>
       <c r="W24">
-        <v>1.239834403519697</v>
-      </c>
-      <c r="X24" t="s">
-        <v>90</v>
+        <v>2976.273606528178</v>
+      </c>
+      <c r="X24">
+        <v>1389.471614226066</v>
+      </c>
+      <c r="Y24">
+        <v>2784.916415946166</v>
+      </c>
+      <c r="Z24">
+        <v>0.3673300002832389</v>
       </c>
       <c r="AB24">
-        <v>1409.905351146141</v>
+        <v>3.380549334090233</v>
       </c>
       <c r="AC24">
-        <v>234.9588758598872</v>
+        <v>0.5086619618040752</v>
       </c>
       <c r="AD24">
-        <v>1.44524167900995</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS24">
+        <v>0.7346600005664778</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ24">
         <v>1</v>
       </c>
-      <c r="AY24" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ24">
+      <c r="BF24" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG24">
         <v>19527</v>
       </c>
-      <c r="BB24">
-        <v>1.000410031202064</v>
-      </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:59">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3508,106 +3802,115 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>102.6600922409261</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
+        <v>102.6460736446238</v>
+      </c>
+      <c r="D25">
+        <v>103.3416118997793</v>
       </c>
       <c r="E25">
-        <v>102.6180232824058</v>
+        <v>101.9505353894683</v>
       </c>
       <c r="F25">
-        <v>1286.900223786638</v>
-      </c>
-      <c r="G25">
-        <v>372.7248208724197</v>
+        <v>0.695538255155479</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
       </c>
       <c r="H25">
-        <v>1286.900223786638</v>
+        <v>102.6040104296771</v>
       </c>
       <c r="I25">
-        <v>1225.68949677208</v>
+        <v>0.901</v>
       </c>
       <c r="J25">
-        <v>1.057084966545588</v>
+        <v>0.6950719387228922</v>
       </c>
       <c r="K25">
-        <v>28.18883091415866</v>
+        <v>1286.911548530421</v>
       </c>
       <c r="L25">
-        <v>0.9999999807315918</v>
+        <v>0.254</v>
       </c>
       <c r="M25">
-        <v>2.114169933091176</v>
-      </c>
-      <c r="N25" t="s">
-        <v>90</v>
+        <v>363.9881771383272</v>
+      </c>
+      <c r="N25">
+        <v>1286.911548530421</v>
       </c>
       <c r="O25">
-        <v>1389.518247069043</v>
+        <v>1146.385010481467</v>
       </c>
       <c r="P25">
-        <v>517.3395344029004</v>
+        <v>0.9969809978002802</v>
       </c>
       <c r="Q25">
-        <v>1389.518247069043</v>
+        <v>22.34694737102058</v>
       </c>
       <c r="R25">
-        <v>1170.781692511092</v>
+        <v>0.9999999913794702</v>
       </c>
       <c r="S25">
-        <v>1.063011709270168</v>
+        <v>1.99396199560056</v>
+      </c>
+      <c r="T25" t="s">
+        <v>101</v>
       </c>
       <c r="U25">
-        <v>24.7584487594505</v>
+        <v>1389.515558960098</v>
       </c>
       <c r="V25">
-        <v>5.551115123125783E-17</v>
+        <v>0.647</v>
       </c>
       <c r="W25">
-        <v>2.126023418540336</v>
-      </c>
-      <c r="X25" t="s">
-        <v>90</v>
+        <v>19564.94726498367</v>
+      </c>
+      <c r="X25">
+        <v>1389.515558960098</v>
+      </c>
+      <c r="Y25">
+        <v>11140.12906452186</v>
+      </c>
+      <c r="Z25">
+        <v>0.2511986134780715</v>
       </c>
       <c r="AB25">
-        <v>1410.396440902404</v>
+        <v>27.13684650427415</v>
       </c>
       <c r="AC25">
-        <v>355.6333808119639</v>
+        <v>0.187124566428074</v>
       </c>
       <c r="AD25">
-        <v>0.4983431962623323</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS25">
+        <v>0.5023972269561431</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ25">
         <v>1</v>
       </c>
-      <c r="AY25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ25">
+      <c r="BF25" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG25">
         <v>19516</v>
       </c>
-      <c r="BB25">
-        <v>1.000409956820202</v>
-      </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:59">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3615,106 +3918,115 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>102.7384684656449</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
+        <v>102.6978441521406</v>
+      </c>
+      <c r="D26">
+        <v>102.8358171367838</v>
       </c>
       <c r="E26">
-        <v>102.6953123234553</v>
+        <v>102.5598711674973</v>
       </c>
       <c r="F26">
-        <v>1286.665386318116</v>
-      </c>
-      <c r="G26">
-        <v>437.4422682771773</v>
+        <v>0.137972984643237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
       </c>
       <c r="H26">
-        <v>1286.665386318116</v>
+        <v>102.6547050736522</v>
       </c>
       <c r="I26">
-        <v>1011.529044669686</v>
+        <v>0.1876</v>
       </c>
       <c r="J26">
-        <v>1.104292770760954</v>
+        <v>0.1369969342722676</v>
       </c>
       <c r="K26">
-        <v>26.33272358442821</v>
+        <v>1286.663796616695</v>
       </c>
       <c r="L26">
-        <v>3.201555687226687E-11</v>
+        <v>0.118</v>
       </c>
       <c r="M26">
-        <v>2.208585541521908</v>
-      </c>
-      <c r="N26" t="s">
-        <v>90</v>
+        <v>422.621482611588</v>
+      </c>
+      <c r="N26">
+        <v>1286.663796616695</v>
       </c>
       <c r="O26">
-        <v>1389.360748644071</v>
+        <v>981.3134330668578</v>
       </c>
       <c r="P26">
-        <v>758.9926207261199</v>
+        <v>1.087722333251025</v>
       </c>
       <c r="Q26">
-        <v>1389.360698641571</v>
+        <v>19.02208798224637</v>
       </c>
       <c r="R26">
-        <v>2097.9148217278</v>
+        <v>3.594557929087472E-09</v>
       </c>
       <c r="S26">
-        <v>1.052114149169527</v>
+        <v>2.175444666502051</v>
+      </c>
+      <c r="T26" t="s">
+        <v>101</v>
       </c>
       <c r="U26">
-        <v>28.25946194293158</v>
+        <v>1389.318501690347</v>
       </c>
       <c r="V26">
-        <v>0.5899367808885977</v>
+        <v>0.0696</v>
       </c>
       <c r="W26">
-        <v>2.104228298339055</v>
-      </c>
-      <c r="X26" t="s">
-        <v>90</v>
+        <v>675.7686540083773</v>
+      </c>
+      <c r="X26">
+        <v>1389.318501690347</v>
+      </c>
+      <c r="Y26">
+        <v>1660.823674534643</v>
+      </c>
+      <c r="Z26">
+        <v>1.155673308014884</v>
       </c>
       <c r="AB26">
-        <v>1410.557677010326</v>
+        <v>23.87812872782285</v>
       </c>
       <c r="AC26">
-        <v>737.2960238288235</v>
+        <v>1.60566893114833E-09</v>
       </c>
       <c r="AD26">
-        <v>0.9229949514407336</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ26" t="s">
+        <v>2.311346616029767</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW26" t="s">
         <v>128</v>
       </c>
-      <c r="AR26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS26">
+      <c r="AX26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ26">
         <v>1</v>
       </c>
-      <c r="AY26" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ26">
+      <c r="BF26" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG26">
         <v>21066</v>
       </c>
-      <c r="BB26">
-        <v>1.000420234782028</v>
-      </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:59">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3722,106 +4034,115 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>102.7451652620672</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
+        <v>102.7322417017555</v>
+      </c>
+      <c r="D27">
+        <v>102.7998943671487</v>
       </c>
       <c r="E27">
-        <v>102.6958931868101</v>
+        <v>102.6645890363623</v>
       </c>
       <c r="F27">
-        <v>1286.316508625729</v>
-      </c>
-      <c r="G27">
-        <v>1933.327326187368</v>
+        <v>0.06765266539318812</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
       </c>
       <c r="H27">
-        <v>1286.316508625729</v>
+        <v>102.682975821971</v>
       </c>
       <c r="I27">
-        <v>3813.26193615628</v>
+        <v>0.08149999999999999</v>
       </c>
       <c r="J27">
-        <v>0.8219638450219778</v>
+        <v>0.06552503338419599</v>
       </c>
       <c r="K27">
-        <v>24.50079136811959</v>
+        <v>1286.322143332479</v>
       </c>
       <c r="L27">
-        <v>0.3570141285773814</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="M27">
-        <v>1.643927690043956</v>
-      </c>
-      <c r="N27" t="s">
-        <v>90</v>
+        <v>1907.943488946082</v>
+      </c>
+      <c r="N27">
+        <v>1286.322143332479</v>
       </c>
       <c r="O27">
-        <v>1389.012451815039</v>
+        <v>3764.87713479384</v>
       </c>
       <c r="P27">
-        <v>2665.262604754806</v>
+        <v>0.8320571442211468</v>
       </c>
       <c r="Q27">
-        <v>1389.012401812539</v>
+        <v>13.90076880706746</v>
       </c>
       <c r="R27">
-        <v>5831.409057190251</v>
+        <v>0.3202260613209514</v>
       </c>
       <c r="S27">
-        <v>0.943264180000978</v>
+        <v>1.664114288442294</v>
+      </c>
+      <c r="T27" t="s">
+        <v>101</v>
       </c>
       <c r="U27">
-        <v>16.85609729605603</v>
+        <v>1389.00511915445</v>
       </c>
       <c r="V27">
-        <v>0.255192891892449</v>
+        <v>0.0187</v>
       </c>
       <c r="W27">
-        <v>1.886528360001956</v>
-      </c>
-      <c r="X27" t="s">
-        <v>90</v>
+        <v>2638.61379760195</v>
+      </c>
+      <c r="X27">
+        <v>1389.00511915445</v>
+      </c>
+      <c r="Y27">
+        <v>5643.332785584445</v>
+      </c>
+      <c r="Z27">
+        <v>0.9520597092664891</v>
       </c>
       <c r="AB27">
-        <v>1410.281512951849</v>
+        <v>15.12511962727855</v>
       </c>
       <c r="AC27">
-        <v>1187.58750552986</v>
+        <v>0.1587474521028084</v>
       </c>
       <c r="AD27">
-        <v>0.6409218267209931</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR27" t="s">
+        <v>1.904119418532978</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW27" t="s">
         <v>129</v>
       </c>
-      <c r="AS27">
+      <c r="AX27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ27">
         <v>1</v>
       </c>
-      <c r="AY27" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ27">
+      <c r="BF27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG27">
         <v>31715</v>
       </c>
-      <c r="BB27">
-        <v>1.00047978622833</v>
-      </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:59">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3829,106 +4150,115 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>102.7133917011376</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
+        <v>102.7081069538972</v>
+      </c>
+      <c r="D28">
+        <v>102.7605800085753</v>
       </c>
       <c r="E28">
-        <v>102.6639619595655</v>
+        <v>102.655633899219</v>
       </c>
       <c r="F28">
-        <v>1286.303795990711</v>
-      </c>
-      <c r="G28">
-        <v>1712.185914462004</v>
+        <v>0.05247305467813602</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
       </c>
       <c r="H28">
-        <v>1286.303795990711</v>
+        <v>102.6586797533305</v>
       </c>
       <c r="I28">
-        <v>3559.244322835998</v>
+        <v>0.0597</v>
       </c>
       <c r="J28">
-        <v>0.8950634432062556</v>
+        <v>0.04970160963188214</v>
       </c>
       <c r="K28">
-        <v>26.21129119804883</v>
+        <v>1286.308765804429</v>
       </c>
       <c r="L28">
-        <v>0.2622535157649745</v>
+        <v>0.0484</v>
       </c>
       <c r="M28">
-        <v>1.790126886412511</v>
-      </c>
-      <c r="N28" t="s">
-        <v>90</v>
+        <v>1691.929428346691</v>
+      </c>
+      <c r="N28">
+        <v>1286.308765804429</v>
       </c>
       <c r="O28">
-        <v>1388.967807952776</v>
+        <v>3514.75876317341</v>
       </c>
       <c r="P28">
-        <v>2565.521226392249</v>
+        <v>0.9039171775973478</v>
       </c>
       <c r="Q28">
-        <v>1388.967757950276</v>
+        <v>15.00400919360357</v>
       </c>
       <c r="R28">
-        <v>5362.204294837574</v>
+        <v>0.2243664995561365</v>
       </c>
       <c r="S28">
-        <v>0.9391910954064502</v>
+        <v>1.807834355194696</v>
+      </c>
+      <c r="T28" t="s">
+        <v>101</v>
       </c>
       <c r="U28">
-        <v>12.14616007238597</v>
+        <v>1388.96744555776</v>
       </c>
       <c r="V28">
-        <v>0.134604930896488</v>
+        <v>0.0113</v>
       </c>
       <c r="W28">
-        <v>1.8783821908129</v>
-      </c>
-      <c r="X28" t="s">
-        <v>90</v>
+        <v>2566.922658282648</v>
+      </c>
+      <c r="X28">
+        <v>1388.96744555776</v>
+      </c>
+      <c r="Y28">
+        <v>5395.814035248886</v>
+      </c>
+      <c r="Z28">
+        <v>0.9391964419907972</v>
       </c>
       <c r="AB28">
-        <v>1410.192000494912</v>
+        <v>9.605551340889553</v>
       </c>
       <c r="AC28">
-        <v>960.8907294867627</v>
+        <v>0.1491717356662903</v>
       </c>
       <c r="AD28">
-        <v>1.117560447407883</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS28">
+        <v>1.878392883981594</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ28">
         <v>1</v>
       </c>
-      <c r="AY28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ28">
+      <c r="BF28" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG28">
         <v>32077</v>
       </c>
-      <c r="BB28">
-        <v>1.000481471205948</v>
-      </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:59">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3936,106 +4266,115 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>102.7121749380031</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
+        <v>102.7106020989817</v>
+      </c>
+      <c r="D29">
+        <v>102.7701917831932</v>
       </c>
       <c r="E29">
-        <v>102.662577511966</v>
+        <v>102.6510124147701</v>
       </c>
       <c r="F29">
-        <v>1286.438827943575</v>
-      </c>
-      <c r="G29">
-        <v>1272.807999694702</v>
+        <v>0.05958968421156555</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
       </c>
       <c r="H29">
-        <v>1286.438827943575</v>
+        <v>102.661005430082</v>
       </c>
       <c r="I29">
-        <v>2713.221202814539</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="J29">
-        <v>0.9784985375892965</v>
+        <v>0.05714236606931848</v>
       </c>
       <c r="K29">
-        <v>30.31591643598809</v>
+        <v>1286.443841625709</v>
       </c>
       <c r="L29">
-        <v>0.08908115792623966</v>
+        <v>0.0533</v>
       </c>
       <c r="M29">
-        <v>1.956997075178593</v>
-      </c>
-      <c r="N29" t="s">
-        <v>90</v>
+        <v>1253.014893451774</v>
+      </c>
+      <c r="N29">
+        <v>1286.443841625709</v>
       </c>
       <c r="O29">
-        <v>1389.101455458041</v>
+        <v>2626.214436744149</v>
       </c>
       <c r="P29">
-        <v>1956.210914480943</v>
+        <v>0.9837829749193108</v>
       </c>
       <c r="Q29">
-        <v>1389.101405455541</v>
+        <v>20.36113429542871</v>
       </c>
       <c r="R29">
-        <v>4240.98824488428</v>
+        <v>1.052397557987916E-09</v>
       </c>
       <c r="S29">
-        <v>0.969863641395824</v>
+        <v>1.967565949838622</v>
+      </c>
+      <c r="T29" t="s">
+        <v>101</v>
       </c>
       <c r="U29">
-        <v>20.33440477409895</v>
+        <v>1389.104847055791</v>
       </c>
       <c r="V29">
-        <v>0.1477413881998527</v>
+        <v>0.0206</v>
       </c>
       <c r="W29">
-        <v>1.939727282791648</v>
-      </c>
-      <c r="X29" t="s">
-        <v>90</v>
+        <v>1974.872637329054</v>
+      </c>
+      <c r="X29">
+        <v>1389.104847055791</v>
+      </c>
+      <c r="Y29">
+        <v>4393.266545318674</v>
+      </c>
+      <c r="Z29">
+        <v>0.9654690301796172</v>
       </c>
       <c r="AB29">
-        <v>1410.341829450318</v>
+        <v>13.98942547606892</v>
       </c>
       <c r="AC29">
-        <v>861.0107278221577</v>
+        <v>0.2325653356755996</v>
       </c>
       <c r="AD29">
-        <v>0.8817577718408127</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS29">
+        <v>1.930938060359234</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ29">
         <v>1</v>
       </c>
-      <c r="AY29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ29">
+      <c r="BF29" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG29">
         <v>32434</v>
       </c>
-      <c r="BB29">
-        <v>1.000483111054087</v>
-      </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:59">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4043,106 +4382,115 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>102.7222588289048</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
+        <v>102.725930035763</v>
+      </c>
+      <c r="D30">
+        <v>102.7538976407941</v>
       </c>
       <c r="E30">
-        <v>102.681924145043</v>
+        <v>102.697962430732</v>
       </c>
       <c r="F30">
-        <v>1286.744269074002</v>
-      </c>
-      <c r="G30">
-        <v>2413.627116500184</v>
+        <v>0.02796760503107399</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
       </c>
       <c r="H30">
-        <v>1286.744269074002</v>
+        <v>102.6855939087386</v>
       </c>
       <c r="I30">
-        <v>5114.079446855475</v>
+        <v>0.0324</v>
       </c>
       <c r="J30">
-        <v>0.9878349121952636</v>
+        <v>0.02296301373948986</v>
       </c>
       <c r="K30">
-        <v>28.66511700125293</v>
+        <v>1286.744358053018</v>
       </c>
       <c r="L30">
-        <v>0.03046727262352261</v>
+        <v>0.0173</v>
       </c>
       <c r="M30">
-        <v>1.975669824390527</v>
-      </c>
-      <c r="N30" t="s">
-        <v>90</v>
+        <v>2405.632891477803</v>
+      </c>
+      <c r="N30">
+        <v>1286.744358053018</v>
       </c>
       <c r="O30">
-        <v>1389.426193219045</v>
+        <v>5063.691338117614</v>
       </c>
       <c r="P30">
-        <v>3618.155912745734</v>
+        <v>0.9890983613312195</v>
       </c>
       <c r="Q30">
-        <v>1389.426193219045</v>
+        <v>17.7551462239471</v>
       </c>
       <c r="R30">
-        <v>7825.790960761151</v>
+        <v>2.632693346660275E-08</v>
       </c>
       <c r="S30">
-        <v>1.015965028409881</v>
+        <v>1.978196722662439</v>
+      </c>
+      <c r="T30" t="s">
+        <v>101</v>
       </c>
       <c r="U30">
-        <v>21.16580695894754</v>
+        <v>1389.429951961757</v>
       </c>
       <c r="V30">
-        <v>9.021961511201937E-10</v>
+        <v>0.0151</v>
       </c>
       <c r="W30">
-        <v>2.031930056819761</v>
-      </c>
-      <c r="X30" t="s">
-        <v>90</v>
+        <v>3724.976829592213</v>
+      </c>
+      <c r="X30">
+        <v>1389.429951961757</v>
+      </c>
+      <c r="Y30">
+        <v>8237.570566944096</v>
+      </c>
+      <c r="Z30">
+        <v>0.9960435930753035</v>
       </c>
       <c r="AB30">
-        <v>1410.694321054983</v>
+        <v>40.99100908135826</v>
       </c>
       <c r="AC30">
-        <v>1163.827759507055</v>
+        <v>0.1287373961057651</v>
       </c>
       <c r="AD30">
-        <v>0.9565054663711626</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS30">
+        <v>1.992087186150607</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ30">
         <v>1</v>
       </c>
-      <c r="AY30" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ30">
+      <c r="BF30" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG30">
         <v>17057</v>
       </c>
-      <c r="BB30">
-        <v>1.000392811920868</v>
-      </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:59">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4150,106 +4498,115 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>102.7271992849615</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
+        <v>102.7585390800078</v>
+      </c>
+      <c r="D31">
+        <v>103.1444882174235</v>
       </c>
       <c r="E31">
-        <v>102.6865991423754</v>
+        <v>102.372589942592</v>
       </c>
       <c r="F31">
-        <v>1286.75408522217</v>
-      </c>
-      <c r="G31">
-        <v>425.509235291439</v>
+        <v>0.3859491374157861</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
       </c>
       <c r="H31">
-        <v>1286.75408522217</v>
+        <v>102.7179265496761</v>
       </c>
       <c r="I31">
-        <v>761.5968129691551</v>
+        <v>0.473</v>
       </c>
       <c r="J31">
-        <v>0.8280444065916052</v>
+        <v>0.385467248933032</v>
       </c>
       <c r="K31">
-        <v>19.79839134639115</v>
+        <v>1286.75368767639</v>
       </c>
       <c r="L31">
-        <v>5.939817526723346E-10</v>
+        <v>0.101</v>
       </c>
       <c r="M31">
-        <v>1.65608881318321</v>
-      </c>
-      <c r="N31" t="s">
-        <v>90</v>
+        <v>436.2719863259741</v>
+      </c>
+      <c r="N31">
+        <v>1286.75368767639</v>
       </c>
       <c r="O31">
-        <v>1389.440684364546</v>
+        <v>784.7275552363631</v>
       </c>
       <c r="P31">
-        <v>966.0209908418811</v>
+        <v>0.8433944634824359</v>
       </c>
       <c r="Q31">
-        <v>1389.440684364546</v>
+        <v>16.30150003521954</v>
       </c>
       <c r="R31">
-        <v>1556.267491003709</v>
+        <v>2.590160086413107E-09</v>
       </c>
       <c r="S31">
-        <v>0.6199172017598487</v>
+        <v>1.686788926964872</v>
+      </c>
+      <c r="T31" t="s">
+        <v>101</v>
       </c>
       <c r="U31">
-        <v>16.4487602218505</v>
+        <v>1389.471614226066</v>
       </c>
       <c r="V31">
-        <v>0.5608513433222618</v>
+        <v>0.372</v>
       </c>
       <c r="W31">
-        <v>1.239834403519697</v>
-      </c>
-      <c r="X31" t="s">
-        <v>90</v>
+        <v>2976.273606528178</v>
+      </c>
+      <c r="X31">
+        <v>1389.471614226066</v>
+      </c>
+      <c r="Y31">
+        <v>2784.916415946166</v>
+      </c>
+      <c r="Z31">
+        <v>0.3673300002832389</v>
       </c>
       <c r="AB31">
-        <v>1409.905351146141</v>
+        <v>3.380549334090233</v>
       </c>
       <c r="AC31">
-        <v>234.9588758598872</v>
+        <v>0.5086619618040752</v>
       </c>
       <c r="AD31">
-        <v>1.44524167900995</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS31">
+        <v>0.7346600005664778</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ31">
         <v>1</v>
       </c>
-      <c r="AY31" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ31">
+      <c r="BF31" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG31">
         <v>17416</v>
       </c>
-      <c r="BB31">
-        <v>1.000395379172406</v>
-      </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:59">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4257,106 +4614,115 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>102.6743219941365</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
+        <v>102.6867986891066</v>
+      </c>
+      <c r="D32">
+        <v>104.9424886126537</v>
       </c>
       <c r="E32">
-        <v>102.6332694475636</v>
+        <v>100.4311087655595</v>
       </c>
       <c r="F32">
-        <v>1286.866372825202</v>
-      </c>
-      <c r="G32">
-        <v>401.0023724700132</v>
+        <v>2.255689923547096</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
       </c>
       <c r="H32">
-        <v>1286.866372825202</v>
+        <v>102.6457411525632</v>
       </c>
       <c r="I32">
-        <v>919.6133131218322</v>
+        <v>2.396</v>
       </c>
       <c r="J32">
-        <v>0.9380131264769263</v>
+        <v>2.254731913110736</v>
       </c>
       <c r="K32">
-        <v>27.28075024344447</v>
+        <v>1286.852773978477</v>
       </c>
       <c r="L32">
-        <v>0.4784838304360314</v>
+        <v>0.146</v>
       </c>
       <c r="M32">
-        <v>1.876026252953853</v>
-      </c>
-      <c r="N32" t="s">
-        <v>90</v>
+        <v>383.1423519373027</v>
+      </c>
+      <c r="N32">
+        <v>1286.852773978477</v>
       </c>
       <c r="O32">
-        <v>1389.499642272765</v>
+        <v>795.4899513111085</v>
       </c>
       <c r="P32">
-        <v>1594.74535218923</v>
+        <v>0.9669204269918547</v>
       </c>
       <c r="Q32">
-        <v>1389.499642272765</v>
+        <v>22.78020269028257</v>
       </c>
       <c r="R32">
-        <v>1699.146052490263</v>
+        <v>0.05629766976089207</v>
       </c>
       <c r="S32">
-        <v>0.50046897138513</v>
+        <v>1.933840853983709</v>
+      </c>
+      <c r="T32" t="s">
+        <v>101</v>
       </c>
       <c r="U32">
-        <v>21.99203737831031</v>
+        <v>1389.49851513104</v>
       </c>
       <c r="V32">
-        <v>1.083136358381864E-09</v>
+        <v>2.25</v>
       </c>
       <c r="W32">
-        <v>1.00093794277026</v>
-      </c>
-      <c r="X32" t="s">
-        <v>90</v>
+        <v>1333.943971015241</v>
+      </c>
+      <c r="X32">
+        <v>1389.49851513104</v>
+      </c>
+      <c r="Y32">
+        <v>1607.458566742464</v>
+      </c>
+      <c r="Z32">
+        <v>0.5442474532095287</v>
       </c>
       <c r="AB32">
-        <v>1410.498438956173</v>
+        <v>24.22246876822857</v>
       </c>
       <c r="AC32">
-        <v>365.6429716539507</v>
+        <v>0.1187007642348166</v>
       </c>
       <c r="AD32">
-        <v>1.410556562794754</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS32">
+        <v>1.088494906419057</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ32">
         <v>1</v>
       </c>
-      <c r="AY32" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ32">
+      <c r="BF32" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG32">
         <v>18069</v>
       </c>
-      <c r="BB32">
-        <v>1.000399992583242</v>
-      </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:59">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4364,106 +4730,115 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>102.9514336256523</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
+        <v>102.7621004995003</v>
+      </c>
+      <c r="D33">
+        <v>102.9183631358995</v>
       </c>
       <c r="E33">
-        <v>102.9043638321352</v>
+        <v>102.6058378631012</v>
       </c>
       <c r="F33">
-        <v>1286.160487584043</v>
-      </c>
-      <c r="G33">
-        <v>882.6664268862197</v>
+        <v>0.15626263639912</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
       </c>
       <c r="H33">
-        <v>1286.160487584043</v>
+        <v>102.7151172687982</v>
       </c>
       <c r="I33">
-        <v>1016.199635019723</v>
+        <v>0.205</v>
       </c>
       <c r="J33">
-        <v>0.3684998919442474</v>
+        <v>0.1553479964466874</v>
       </c>
       <c r="K33">
-        <v>18.82122042164864</v>
+        <v>1286.325080099321</v>
       </c>
       <c r="L33">
-        <v>0.9999998991903793</v>
+        <v>0.142</v>
       </c>
       <c r="M33">
-        <v>0.7369997838884947</v>
-      </c>
-      <c r="N33" t="s">
+        <v>292.6628533355605</v>
+      </c>
+      <c r="N33">
+        <v>1286.325080099321</v>
+      </c>
+      <c r="O33">
+        <v>595.5726630993714</v>
+      </c>
+      <c r="P33">
+        <v>0.9457470677979244</v>
+      </c>
+      <c r="Q33">
+        <v>19.45431403700339</v>
+      </c>
+      <c r="R33">
+        <v>0.008476026139055404</v>
+      </c>
+      <c r="S33">
+        <v>1.891494135595849</v>
+      </c>
+      <c r="T33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33">
+        <v>1389.040197368119</v>
+      </c>
+      <c r="V33">
+        <v>0.063</v>
+      </c>
+      <c r="W33">
+        <v>475.8539023066019</v>
+      </c>
+      <c r="X33">
+        <v>1389.040197368119</v>
+      </c>
+      <c r="Y33">
+        <v>1101.813743801982</v>
+      </c>
+      <c r="Z33">
+        <v>0.9329844920764017</v>
+      </c>
+      <c r="AB33">
+        <v>2.93727597985463</v>
+      </c>
+      <c r="AC33">
+        <v>0.4342634073794063</v>
+      </c>
+      <c r="AD33">
+        <v>1.865968984152803</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU33" t="s">
         <v>90</v>
       </c>
-      <c r="O33">
-        <v>1389.064901418679</v>
-      </c>
-      <c r="P33">
-        <v>497.9925743413182</v>
-      </c>
-      <c r="Q33">
-        <v>1389.064851416179</v>
-      </c>
-      <c r="R33">
-        <v>1228.002812101328</v>
-      </c>
-      <c r="S33">
-        <v>0.8863072976616817</v>
-      </c>
-      <c r="U33">
-        <v>11.94771064618621</v>
-      </c>
-      <c r="V33">
-        <v>0.7287339072625294</v>
-      </c>
-      <c r="W33">
-        <v>1.772614595323363</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="AV33" t="s">
         <v>90</v>
       </c>
-      <c r="AB33">
-        <v>1410.197295584168</v>
-      </c>
-      <c r="AC33">
-        <v>1231.594804191964</v>
-      </c>
-      <c r="AD33">
-        <v>0.06736518894886404</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS33">
+      <c r="AW33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ33">
         <v>1</v>
       </c>
-      <c r="AY33" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ33">
+      <c r="BF33" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG33">
         <v>27295</v>
       </c>
-      <c r="BB33">
-        <v>1.000457412997508</v>
-      </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:59">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4471,106 +4846,115 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>102.5903989966466</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
+        <v>102.6182532775723</v>
+      </c>
+      <c r="D34">
+        <v>102.7746128576936</v>
       </c>
       <c r="E34">
-        <v>102.5432754608757</v>
+        <v>102.4618936974511</v>
       </c>
       <c r="F34">
-        <v>1286.51451680003</v>
-      </c>
-      <c r="G34">
-        <v>283.2119814224214</v>
+        <v>0.1563595801212556</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
       </c>
       <c r="H34">
-        <v>1286.51451680003</v>
+        <v>102.5711169462236</v>
       </c>
       <c r="I34">
-        <v>927.5592507691421</v>
+        <v>0.2174</v>
       </c>
       <c r="J34">
-        <v>1.144790539277553</v>
+        <v>0.1554437518847252</v>
       </c>
       <c r="K34">
-        <v>13.72803903262949</v>
+        <v>1286.517596407441</v>
       </c>
       <c r="L34">
-        <v>0.809325569310391</v>
+        <v>0.125</v>
       </c>
       <c r="M34">
-        <v>2.289581078555107</v>
-      </c>
-      <c r="N34" t="s">
-        <v>90</v>
+        <v>278.9451012991084</v>
+      </c>
+      <c r="N34">
+        <v>1286.517596407441</v>
       </c>
       <c r="O34">
-        <v>1389.057842263406</v>
+        <v>889.665619167828</v>
       </c>
       <c r="P34">
-        <v>485.2508251098982</v>
+        <v>1.144758628671341</v>
       </c>
       <c r="Q34">
-        <v>1389.057792260906</v>
+        <v>11.53767475558931</v>
       </c>
       <c r="R34">
-        <v>1021.24638218277</v>
+        <v>0.7334751450770217</v>
       </c>
       <c r="S34">
-        <v>0.9194743430169596</v>
+        <v>2.289517257342682</v>
+      </c>
+      <c r="T34" t="s">
+        <v>101</v>
       </c>
       <c r="U34">
-        <v>10.25730345772888</v>
+        <v>1389.088713353665</v>
       </c>
       <c r="V34">
-        <v>0.2181490498356868</v>
+        <v>0.0924</v>
       </c>
       <c r="W34">
-        <v>1.838948686033919</v>
-      </c>
-      <c r="X34" t="s">
-        <v>90</v>
+        <v>506.1114754844249</v>
+      </c>
+      <c r="X34">
+        <v>1389.088713353665</v>
+      </c>
+      <c r="Y34">
+        <v>1135.784893826886</v>
+      </c>
+      <c r="Z34">
+        <v>0.8772225163915217</v>
       </c>
       <c r="AB34">
-        <v>1410.193703586954</v>
+        <v>11.53352038684629</v>
       </c>
       <c r="AC34">
-        <v>310.7447620624773</v>
+        <v>0.5096719691951508</v>
       </c>
       <c r="AD34">
-        <v>1.057551164800595</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS34">
+        <v>1.754445032783043</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ34">
         <v>1</v>
       </c>
-      <c r="AY34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ34">
+      <c r="BF34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG34">
         <v>27690</v>
       </c>
-      <c r="BB34">
-        <v>1.000459547791496</v>
-      </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:59">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4578,106 +4962,115 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>102.8207479034881</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
+        <v>102.9836380009124</v>
+      </c>
+      <c r="D35">
+        <v>103.2988771870037</v>
       </c>
       <c r="E35">
-        <v>102.7733210699271</v>
+        <v>102.6683988148212</v>
       </c>
       <c r="F35">
-        <v>1286.343041295216</v>
-      </c>
-      <c r="G35">
-        <v>384.3740614929502</v>
+        <v>0.3152391860912013</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
       </c>
       <c r="H35">
-        <v>1286.343041295216</v>
+        <v>102.9361360319326</v>
       </c>
       <c r="I35">
-        <v>633.6523936443585</v>
+        <v>0.444</v>
       </c>
       <c r="J35">
-        <v>0.7755780618195408</v>
+        <v>0.3146712570286648</v>
       </c>
       <c r="K35">
-        <v>14.33494270546586</v>
+        <v>1286.3260964453</v>
       </c>
       <c r="L35">
-        <v>6.939794167104552E-08</v>
+        <v>0.237</v>
       </c>
       <c r="M35">
-        <v>1.551156123639082</v>
-      </c>
-      <c r="N35" t="s">
-        <v>90</v>
+        <v>389.4434070963958</v>
+      </c>
+      <c r="N35">
+        <v>1286.3260964453</v>
       </c>
       <c r="O35">
-        <v>1389.116362365143</v>
+        <v>625.3320488427511</v>
       </c>
       <c r="P35">
-        <v>483.9282098632985</v>
+        <v>0.7512588001369058</v>
       </c>
       <c r="Q35">
-        <v>1389.116362365143</v>
+        <v>10.69679937223614</v>
       </c>
       <c r="R35">
-        <v>954.8831002105733</v>
+        <v>3.722763208813262E-10</v>
       </c>
       <c r="S35">
-        <v>0.9268448925330138</v>
+        <v>1.502517600273812</v>
+      </c>
+      <c r="T35" t="s">
+        <v>101</v>
       </c>
       <c r="U35">
-        <v>14.88272510582329</v>
+        <v>1389.262232477233</v>
       </c>
       <c r="V35">
-        <v>5.551115123125783E-17</v>
+        <v>0.207</v>
       </c>
       <c r="W35">
-        <v>1.853689785066028</v>
-      </c>
-      <c r="X35" t="s">
-        <v>90</v>
+        <v>799.9673821629044</v>
+      </c>
+      <c r="X35">
+        <v>1389.262232477233</v>
+      </c>
+      <c r="Y35">
+        <v>1400.130610493346</v>
+      </c>
+      <c r="Z35">
+        <v>0.5536511604396726</v>
       </c>
       <c r="AB35">
-        <v>1410.299753181396</v>
+        <v>5.178598674293108</v>
       </c>
       <c r="AC35">
-        <v>212.9458675888206</v>
+        <v>0.9999999891069019</v>
       </c>
       <c r="AD35">
-        <v>0.5082491533588087</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS35">
+        <v>1.107302320879345</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ35">
         <v>1</v>
       </c>
-      <c r="AY35" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ35">
+      <c r="BF35" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG35">
         <v>28050</v>
       </c>
-      <c r="BB35">
-        <v>1.00046147028302</v>
-      </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:59">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4685,106 +5078,115 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>102.5958736184814</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
+        <v>102.5925930042294</v>
+      </c>
+      <c r="D36">
+        <v>102.7827573847369</v>
       </c>
       <c r="E36">
-        <v>102.5483138073689</v>
+        <v>102.4024286237218</v>
       </c>
       <c r="F36">
-        <v>1286.58162761295</v>
-      </c>
-      <c r="G36">
-        <v>304.5125878063695</v>
+        <v>0.1901643805075757</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
       </c>
       <c r="H36">
-        <v>1286.58162761295</v>
+        <v>102.5450347126618</v>
       </c>
       <c r="I36">
-        <v>560.0958196601511</v>
+        <v>0.2367</v>
       </c>
       <c r="J36">
-        <v>0.7839402295512677</v>
+        <v>0.1893765825016388</v>
       </c>
       <c r="K36">
-        <v>17.57877995206336</v>
+        <v>1286.595990115531</v>
       </c>
       <c r="L36">
-        <v>0.2957351089440355</v>
+        <v>0.181</v>
       </c>
       <c r="M36">
-        <v>1.567880459102535</v>
-      </c>
-      <c r="N36" t="s">
-        <v>90</v>
+        <v>299.3493995819635</v>
+      </c>
+      <c r="N36">
+        <v>1286.595990115531</v>
       </c>
       <c r="O36">
-        <v>1389.129941420319</v>
+        <v>531.8575951016614</v>
       </c>
       <c r="P36">
-        <v>449.7068045588376</v>
+        <v>0.8129682179246035</v>
       </c>
       <c r="Q36">
-        <v>1389.129941420319</v>
+        <v>14.38790709404099</v>
       </c>
       <c r="R36">
-        <v>1053.61845823366</v>
+        <v>0.07797876499828155</v>
       </c>
       <c r="S36">
-        <v>1.092070429078097</v>
+        <v>1.625936435849207</v>
+      </c>
+      <c r="T36" t="s">
+        <v>101</v>
       </c>
       <c r="U36">
-        <v>13.26005211134613</v>
+        <v>1389.141024828192</v>
       </c>
       <c r="V36">
-        <v>0.02377480618368411</v>
+        <v>0.0557</v>
       </c>
       <c r="W36">
-        <v>2.184140858156194</v>
-      </c>
-      <c r="X36" t="s">
-        <v>90</v>
+        <v>453.9696469900957</v>
+      </c>
+      <c r="X36">
+        <v>1389.141024828192</v>
+      </c>
+      <c r="Y36">
+        <v>1085.831780065816</v>
+      </c>
+      <c r="Z36">
+        <v>1.079289536415028</v>
       </c>
       <c r="AB36">
-        <v>1410.281560142646</v>
+        <v>9.555690765943792</v>
       </c>
       <c r="AC36">
-        <v>242.8426312266537</v>
+        <v>0.1196935302197695</v>
       </c>
       <c r="AD36">
-        <v>0.5105049894625041</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS36">
+        <v>2.158579072830055</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ36">
         <v>1</v>
       </c>
-      <c r="AY36" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ36">
+      <c r="BF36" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG36">
         <v>28488</v>
       </c>
-      <c r="BB36">
-        <v>1.000463779552746</v>
-      </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:59">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4792,106 +5194,115 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>102.9523728833153</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
+        <v>102.7630380301435</v>
+      </c>
+      <c r="D37">
+        <v>102.9193196933277</v>
       </c>
       <c r="E37">
-        <v>102.9043638321352</v>
+        <v>102.6067563669594</v>
       </c>
       <c r="F37">
-        <v>1286.160487584043</v>
-      </c>
-      <c r="G37">
-        <v>882.6664268862197</v>
+        <v>0.1562816631841454</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
       </c>
       <c r="H37">
-        <v>1286.160487584043</v>
+        <v>102.7151172687982</v>
       </c>
       <c r="I37">
-        <v>1016.199635019723</v>
+        <v>0.205</v>
       </c>
       <c r="J37">
-        <v>0.3684998919442474</v>
+        <v>0.1553479964466874</v>
       </c>
       <c r="K37">
-        <v>18.82122042164864</v>
+        <v>1286.325080099321</v>
       </c>
       <c r="L37">
-        <v>0.9999998991903793</v>
+        <v>0.142</v>
       </c>
       <c r="M37">
-        <v>0.7369997838884947</v>
-      </c>
-      <c r="N37" t="s">
-        <v>90</v>
+        <v>292.6628533355605</v>
+      </c>
+      <c r="N37">
+        <v>1286.325080099321</v>
       </c>
       <c r="O37">
-        <v>1389.064901418679</v>
+        <v>595.5726630993714</v>
       </c>
       <c r="P37">
-        <v>497.9925743413182</v>
+        <v>0.9457470677979244</v>
       </c>
       <c r="Q37">
-        <v>1389.064851416179</v>
+        <v>19.45431403700339</v>
       </c>
       <c r="R37">
-        <v>1228.002812101328</v>
+        <v>0.008476026139055404</v>
       </c>
       <c r="S37">
-        <v>0.8863072976616817</v>
+        <v>1.891494135595849</v>
+      </c>
+      <c r="T37" t="s">
+        <v>101</v>
       </c>
       <c r="U37">
-        <v>11.94771064618621</v>
+        <v>1389.040197368119</v>
       </c>
       <c r="V37">
-        <v>0.7287339072625294</v>
+        <v>0.063</v>
       </c>
       <c r="W37">
-        <v>1.772614595323363</v>
-      </c>
-      <c r="X37" t="s">
-        <v>90</v>
+        <v>475.8539023066019</v>
+      </c>
+      <c r="X37">
+        <v>1389.040197368119</v>
+      </c>
+      <c r="Y37">
+        <v>1101.813743801982</v>
+      </c>
+      <c r="Z37">
+        <v>0.9329844920764017</v>
       </c>
       <c r="AB37">
-        <v>1410.197295584168</v>
+        <v>2.93727597985463</v>
       </c>
       <c r="AC37">
-        <v>1231.594804191964</v>
+        <v>0.4342634073794063</v>
       </c>
       <c r="AD37">
-        <v>0.06736518894886404</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS37">
+        <v>1.865968984152803</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ37">
         <v>1</v>
       </c>
-      <c r="AY37" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ37">
+      <c r="BF37" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG37">
         <v>29020</v>
       </c>
-      <c r="BB37">
-        <v>1.00046654047887</v>
-      </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:59">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4899,103 +5310,773 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>102.5633811794658</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
+        <v>102.5419688065021</v>
+      </c>
+      <c r="D38">
+        <v>102.6651852279716</v>
       </c>
       <c r="E38">
-        <v>102.5153440659615</v>
+        <v>102.4187523850326</v>
       </c>
       <c r="F38">
-        <v>1286.69048693907</v>
-      </c>
-      <c r="G38">
-        <v>306.9405931331896</v>
+        <v>0.1232164214694836</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
       </c>
       <c r="H38">
-        <v>1286.69048693907</v>
+        <v>102.4939417203705</v>
       </c>
       <c r="I38">
-        <v>623.3592290394365</v>
+        <v>0.1724</v>
       </c>
       <c r="J38">
-        <v>0.9578685601163607</v>
+        <v>0.1220639176824994</v>
       </c>
       <c r="K38">
-        <v>16.35843130826884</v>
+        <v>1286.690690723899</v>
       </c>
       <c r="L38">
-        <v>1.33965352144827E-08</v>
+        <v>0.0906</v>
       </c>
       <c r="M38">
-        <v>1.915737120232721</v>
-      </c>
-      <c r="N38" t="s">
-        <v>90</v>
+        <v>305.2565073916417</v>
+      </c>
+      <c r="N38">
+        <v>1286.690690723899</v>
       </c>
       <c r="O38">
-        <v>1389.205881007531</v>
+        <v>620.8594941199834</v>
       </c>
       <c r="P38">
-        <v>563.4720043885615</v>
+        <v>0.9557659779094546</v>
       </c>
       <c r="Q38">
-        <v>1389.205831005031</v>
+        <v>14.20818419630471</v>
       </c>
       <c r="R38">
-        <v>1187.833068788642</v>
+        <v>1.02705414173343E-08</v>
       </c>
       <c r="S38">
-        <v>0.8159180605700921</v>
+        <v>1.911531955818909</v>
+      </c>
+      <c r="T38" t="s">
+        <v>101</v>
       </c>
       <c r="U38">
-        <v>10.99085123452996</v>
+        <v>1389.18463244427</v>
       </c>
       <c r="V38">
-        <v>0.5465717620299534</v>
+        <v>0.0818</v>
       </c>
       <c r="W38">
-        <v>1.631836121140184</v>
-      </c>
-      <c r="X38" t="s">
-        <v>90</v>
+        <v>538.1899808803346</v>
+      </c>
+      <c r="X38">
+        <v>1389.18463244427</v>
+      </c>
+      <c r="Y38">
+        <v>1139.265865210794</v>
+      </c>
+      <c r="Z38">
+        <v>0.8551422639109324</v>
       </c>
       <c r="AB38">
-        <v>1410.170902892322</v>
+        <v>6.727287606078883</v>
       </c>
       <c r="AC38">
-        <v>321.0629493929962</v>
+        <v>0.4299376096719139</v>
       </c>
       <c r="AD38">
-        <v>1.28060615251047</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS38">
+        <v>1.710284527821865</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ38">
         <v>1</v>
       </c>
-      <c r="AY38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ38">
+      <c r="BF38" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG38">
         <v>29420</v>
       </c>
-      <c r="BB38">
-        <v>1.000468584619619</v>
+    </row>
+    <row r="39" spans="1:59">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>102.8623428628957</v>
+      </c>
+      <c r="D39">
+        <v>102.9160222287513</v>
+      </c>
+      <c r="E39">
+        <v>102.8086634970402</v>
+      </c>
+      <c r="F39">
+        <v>0.05367936585557575</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39">
+        <v>102.829793991408</v>
+      </c>
+      <c r="I39">
+        <v>0.0665</v>
+      </c>
+      <c r="J39">
+        <v>0.0509388849504973</v>
+      </c>
+      <c r="K39">
+        <v>1285.534615562148</v>
+      </c>
+      <c r="L39">
+        <v>0.0194</v>
+      </c>
+      <c r="M39">
+        <v>5704.423752455376</v>
+      </c>
+      <c r="N39">
+        <v>1285.534765569648</v>
+      </c>
+      <c r="O39">
+        <v>17339.90377923838</v>
+      </c>
+      <c r="P39">
+        <v>1.101369359841497</v>
+      </c>
+      <c r="Q39">
+        <v>63.86432774151805</v>
+      </c>
+      <c r="R39">
+        <v>0.7139809368132698</v>
+      </c>
+      <c r="S39">
+        <v>2.202738719682994</v>
+      </c>
+      <c r="T39" t="s">
+        <v>102</v>
+      </c>
+      <c r="U39">
+        <v>1388.364609563556</v>
+      </c>
+      <c r="V39">
+        <v>0.0471</v>
+      </c>
+      <c r="W39">
+        <v>12769.60754219846</v>
+      </c>
+      <c r="X39">
+        <v>1388.364559561056</v>
+      </c>
+      <c r="Y39">
+        <v>27683.38975974212</v>
+      </c>
+      <c r="Z39">
+        <v>0.6990124601099793</v>
+      </c>
+      <c r="AB39">
+        <v>61.01352968596419</v>
+      </c>
+      <c r="AC39">
+        <v>0.9731346894174941</v>
+      </c>
+      <c r="AD39">
+        <v>1.398024920219959</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF39">
+        <v>1265.475693050056</v>
+      </c>
+      <c r="AG39">
+        <v>4411.296923751876</v>
+      </c>
+      <c r="AH39">
+        <v>3.285081366253515</v>
+      </c>
+      <c r="AI39">
+        <v>1409.823445046323</v>
+      </c>
+      <c r="AJ39">
+        <v>2763.320521049816</v>
+      </c>
+      <c r="AK39">
+        <v>1.211158909083857</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG39">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>102.8869980095792</v>
+      </c>
+      <c r="D40">
+        <v>102.9145306257509</v>
+      </c>
+      <c r="E40">
+        <v>102.8594653934074</v>
+      </c>
+      <c r="F40">
+        <v>0.02753261617178726</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40">
+        <v>102.8542506622896</v>
+      </c>
+      <c r="I40">
+        <v>0.0304</v>
+      </c>
+      <c r="J40">
+        <v>0.02176235281397671</v>
+      </c>
+      <c r="K40">
+        <v>1285.630144973457</v>
+      </c>
+      <c r="L40">
+        <v>0.0176</v>
+      </c>
+      <c r="M40">
+        <v>4908.770778475237</v>
+      </c>
+      <c r="N40">
+        <v>1285.630194975957</v>
+      </c>
+      <c r="O40">
+        <v>14006.84999065768</v>
+      </c>
+      <c r="P40">
+        <v>1.045212784990909</v>
+      </c>
+      <c r="Q40">
+        <v>43.52914207557127</v>
+      </c>
+      <c r="R40">
+        <v>0.686597119302123</v>
+      </c>
+      <c r="S40">
+        <v>2.090425569981817</v>
+      </c>
+      <c r="T40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U40">
+        <v>1388.484495640747</v>
+      </c>
+      <c r="V40">
+        <v>0.0128</v>
+      </c>
+      <c r="W40">
+        <v>8714.896574993627</v>
+      </c>
+      <c r="X40">
+        <v>1388.484445638247</v>
+      </c>
+      <c r="Y40">
+        <v>21840.66655920743</v>
+      </c>
+      <c r="Z40">
+        <v>0.9054807455859555</v>
+      </c>
+      <c r="AB40">
+        <v>38.22816235425854</v>
+      </c>
+      <c r="AC40">
+        <v>0.7165251319595132</v>
+      </c>
+      <c r="AD40">
+        <v>1.810961491171911</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF40">
+        <v>1265.213013207975</v>
+      </c>
+      <c r="AG40">
+        <v>3109.341902670814</v>
+      </c>
+      <c r="AH40">
+        <v>3.108341892101191</v>
+      </c>
+      <c r="AI40">
+        <v>1409.806449408981</v>
+      </c>
+      <c r="AJ40">
+        <v>2224.511294310813</v>
+      </c>
+      <c r="AK40">
+        <v>1.178511750713539</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ40">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG40">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>102.969305943787</v>
+      </c>
+      <c r="D41">
+        <v>103.0254427505658</v>
+      </c>
+      <c r="E41">
+        <v>102.9131691370082</v>
+      </c>
+      <c r="F41">
+        <v>0.05613680677879673</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41">
+        <v>102.9363135994631</v>
+      </c>
+      <c r="I41">
+        <v>0.0696</v>
+      </c>
+      <c r="J41">
+        <v>0.05353596921696665</v>
+      </c>
+      <c r="K41">
+        <v>1285.550526798907</v>
+      </c>
+      <c r="L41">
+        <v>0.0497</v>
+      </c>
+      <c r="M41">
+        <v>2731.267844936546</v>
+      </c>
+      <c r="N41">
+        <v>1285.550676806407</v>
+      </c>
+      <c r="O41">
+        <v>8296.475018317031</v>
+      </c>
+      <c r="P41">
+        <v>1.064992916324413</v>
+      </c>
+      <c r="Q41">
+        <v>62.37426220217046</v>
+      </c>
+      <c r="R41">
+        <v>0.7913547753084853</v>
+      </c>
+      <c r="S41">
+        <v>2.129985832648826</v>
+      </c>
+      <c r="T41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U41">
+        <v>1388.48704040837</v>
+      </c>
+      <c r="V41">
+        <v>0.0199</v>
+      </c>
+      <c r="W41">
+        <v>5018.921149834007</v>
+      </c>
+      <c r="X41">
+        <v>1388.48699040587</v>
+      </c>
+      <c r="Y41">
+        <v>11956.63042425793</v>
+      </c>
+      <c r="Z41">
+        <v>0.8631859726858648</v>
+      </c>
+      <c r="AB41">
+        <v>27.42237536859324</v>
+      </c>
+      <c r="AC41">
+        <v>0.7098631604088336</v>
+      </c>
+      <c r="AD41">
+        <v>1.72637194537173</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF41">
+        <v>1264.685870036802</v>
+      </c>
+      <c r="AG41">
+        <v>2416.5119478477</v>
+      </c>
+      <c r="AH41">
+        <v>3.175010710231185</v>
+      </c>
+      <c r="AI41">
+        <v>1409.774064820949</v>
+      </c>
+      <c r="AJ41">
+        <v>1377.160651350313</v>
+      </c>
+      <c r="AK41">
+        <v>1.363690622101482</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG41">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>102.8919748148054</v>
+      </c>
+      <c r="D42">
+        <v>102.9614463213325</v>
+      </c>
+      <c r="E42">
+        <v>102.8225033082782</v>
+      </c>
+      <c r="F42">
+        <v>0.06947150652716409</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42">
+        <v>102.8604380885681</v>
+      </c>
+      <c r="I42">
+        <v>0.0881</v>
+      </c>
+      <c r="J42">
+        <v>0.06732317580150242</v>
+      </c>
+      <c r="K42">
+        <v>1285.472503202781</v>
+      </c>
+      <c r="L42">
+        <v>0.026</v>
+      </c>
+      <c r="M42">
+        <v>4677.776808439756</v>
+      </c>
+      <c r="N42">
+        <v>1285.472653210282</v>
+      </c>
+      <c r="O42">
+        <v>14066.14166630789</v>
+      </c>
+      <c r="P42">
+        <v>1.050660028904439</v>
+      </c>
+      <c r="Q42">
+        <v>67.25710822188917</v>
+      </c>
+      <c r="R42">
+        <v>0.7994837899599094</v>
+      </c>
+      <c r="S42">
+        <v>2.101320057808878</v>
+      </c>
+      <c r="T42" t="s">
+        <v>102</v>
+      </c>
+      <c r="U42">
+        <v>1388.33314130135</v>
+      </c>
+      <c r="V42">
+        <v>0.0621</v>
+      </c>
+      <c r="W42">
+        <v>11484.17828873494</v>
+      </c>
+      <c r="X42">
+        <v>1388.33309129885</v>
+      </c>
+      <c r="Y42">
+        <v>22837.11638491097</v>
+      </c>
+      <c r="Z42">
+        <v>0.6358469119349892</v>
+      </c>
+      <c r="AB42">
+        <v>55.18859044708729</v>
+      </c>
+      <c r="AC42">
+        <v>0.990934555629077</v>
+      </c>
+      <c r="AD42">
+        <v>1.271693823869978</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF42">
+        <v>1265.384366632938</v>
+      </c>
+      <c r="AG42">
+        <v>4074.241137876656</v>
+      </c>
+      <c r="AH42">
+        <v>3.128794008287754</v>
+      </c>
+      <c r="AI42">
+        <v>1409.7823173325</v>
+      </c>
+      <c r="AJ42">
+        <v>2551.950361975873</v>
+      </c>
+      <c r="AK42">
+        <v>1.389544052432441</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ42">
+        <v>1</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG42">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>102.9732645170563</v>
+      </c>
+      <c r="D43">
+        <v>103.0040266613454</v>
+      </c>
+      <c r="E43">
+        <v>102.9425023727671</v>
+      </c>
+      <c r="F43">
+        <v>0.03076214428915662</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>102.9415309699564</v>
+      </c>
+      <c r="K43">
+        <v>1285.84077662434</v>
+      </c>
+      <c r="L43">
+        <v>0.0256</v>
+      </c>
+      <c r="M43">
+        <v>1944.003050938592</v>
+      </c>
+      <c r="N43">
+        <v>1285.840926631841</v>
+      </c>
+      <c r="O43">
+        <v>5940.502042369264</v>
+      </c>
+      <c r="P43">
+        <v>1.14498958455782</v>
+      </c>
+      <c r="Q43">
+        <v>26.98668885946334</v>
+      </c>
+      <c r="R43">
+        <v>0.6327460855292183</v>
+      </c>
+      <c r="S43">
+        <v>2.28997916911564</v>
+      </c>
+      <c r="T43" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43">
+        <v>1388.782507604297</v>
+      </c>
+      <c r="W43">
+        <v>3123.481967033195</v>
+      </c>
+      <c r="X43">
+        <v>1388.782457601797</v>
+      </c>
+      <c r="Y43">
+        <v>9440.30530815868</v>
+      </c>
+      <c r="Z43">
+        <v>1.078365875683327</v>
+      </c>
+      <c r="AB43">
+        <v>24.59801433347231</v>
+      </c>
+      <c r="AC43">
+        <v>0.7466807819261396</v>
+      </c>
+      <c r="AD43">
+        <v>2.156731751366654</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF43">
+        <v>1265.887321325888</v>
+      </c>
+      <c r="AG43">
+        <v>1543.090743411688</v>
+      </c>
+      <c r="AH43">
+        <v>3.362378481970052</v>
+      </c>
+      <c r="AI43">
+        <v>1410.1328610707</v>
+      </c>
+      <c r="AJ43">
+        <v>1172.465130907985</v>
+      </c>
+      <c r="AK43">
+        <v>1.402972888059807</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ43">
+        <v>1</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG43">
+        <v>6585</v>
       </c>
     </row>
   </sheetData>
